--- a/output/StructureDefinition-c-gender.xlsx
+++ b/output/StructureDefinition-c-gender.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-23T11:27:05+01:00</t>
+    <t>2023-03-23T14:41:29+01:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/StructureDefinition-c-gender.xlsx
+++ b/output/StructureDefinition-c-gender.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-23T14:41:29+01:00</t>
+    <t>2023-03-27T14:34:38+02:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -4734,7 +4734,7 @@
       </c>
       <c r="E23" s="2"/>
       <c r="F23" t="s" s="2">
-        <v>92</v>
+        <v>80</v>
       </c>
       <c r="G23" t="s" s="2">
         <v>92</v>

--- a/output/StructureDefinition-c-gender.xlsx
+++ b/output/StructureDefinition-c-gender.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-27T14:34:38+02:00</t>
+    <t>2023-03-28T14:13:32+02:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/StructureDefinition-c-gender.xlsx
+++ b/output/StructureDefinition-c-gender.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-28T14:13:32+02:00</t>
+    <t>2023-03-28T16:37:13+02:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/StructureDefinition-c-gender.xlsx
+++ b/output/StructureDefinition-c-gender.xlsx
@@ -10,13 +10,13 @@
     <sheet name="Elements" r:id="rId4" sheetId="2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="true">Elements!$A$1:$AP$63</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="true">Elements!$A$1:$AP$75</definedName>
   </definedNames>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2464" uniqueCount="537">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2926" uniqueCount="553">
   <si>
     <t>Property</t>
   </si>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-28T16:37:13+02:00</t>
+    <t>2023-03-28T22:15:03+02:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -632,6 +632,9 @@
     <t>Observation.category</t>
   </si>
   <si>
+    <t>2</t>
+  </si>
+  <si>
     <t xml:space="preserve">CodeableConcept
 </t>
   </si>
@@ -673,13 +676,13 @@
     <t>FiveWs.class</t>
   </si>
   <si>
-    <t>Observation.category:Gender</t>
-  </si>
-  <si>
-    <t>Gender</t>
-  </si>
-  <si>
-    <t>Observation.category:Gender.id</t>
+    <t>Observation.category:Gender_UMLS</t>
+  </si>
+  <si>
+    <t>Gender_UMLS</t>
+  </si>
+  <si>
+    <t>Observation.category:Gender_UMLS.id</t>
   </si>
   <si>
     <t>Observation.category.id</t>
@@ -698,7 +701,7 @@
     <t>Element.id</t>
   </si>
   <si>
-    <t>Observation.category:Gender.extension</t>
+    <t>Observation.category:Gender_UMLS.extension</t>
   </si>
   <si>
     <t>Observation.category.extension</t>
@@ -710,7 +713,7 @@
     <t>Element.extension</t>
   </si>
   <si>
-    <t>Observation.category:Gender.coding</t>
+    <t>Observation.category:Gender_UMLS.coding</t>
   </si>
   <si>
     <t>Observation.category.coding</t>
@@ -741,19 +744,19 @@
     <t>union(., ./translation)</t>
   </si>
   <si>
-    <t>Observation.category:Gender.coding.id</t>
+    <t>Observation.category:Gender_UMLS.coding.id</t>
   </si>
   <si>
     <t>Observation.category.coding.id</t>
   </si>
   <si>
-    <t>Observation.category:Gender.coding.extension</t>
+    <t>Observation.category:Gender_UMLS.coding.extension</t>
   </si>
   <si>
     <t>Observation.category.coding.extension</t>
   </si>
   <si>
-    <t>Observation.category:Gender.coding.system</t>
+    <t>Observation.category:Gender_UMLS.coding.system</t>
   </si>
   <si>
     <t>Observation.category.coding.system</t>
@@ -771,7 +774,7 @@
     <t>Need to be unambiguous about the source of the definition of the symbol.</t>
   </si>
   <si>
-    <t>http://snomed.info/sct</t>
+    <t>http://terminology.hl7.org/CodeSystem/umls</t>
   </si>
   <si>
     <t>Coding.system</t>
@@ -783,7 +786,7 @@
     <t>./codeSystem</t>
   </si>
   <si>
-    <t>Observation.category:Gender.coding.version</t>
+    <t>Observation.category:Gender_UMLS.coding.version</t>
   </si>
   <si>
     <t>Observation.category.coding.version</t>
@@ -807,7 +810,7 @@
     <t>./codeSystemVersion</t>
   </si>
   <si>
-    <t>Observation.category:Gender.coding.code</t>
+    <t>Observation.category:Gender_UMLS.coding.code</t>
   </si>
   <si>
     <t>Observation.category.coding.code</t>
@@ -825,7 +828,7 @@
     <t>Need to refer to a particular code in the system.</t>
   </si>
   <si>
-    <t>263495000</t>
+    <t>C0079399</t>
   </si>
   <si>
     <t>Coding.code</t>
@@ -837,7 +840,7 @@
     <t>./code</t>
   </si>
   <si>
-    <t>Observation.category:Gender.coding.display</t>
+    <t>Observation.category:Gender_UMLS.coding.display</t>
   </si>
   <si>
     <t>Observation.category.coding.display</t>
@@ -861,7 +864,7 @@
     <t>CV.displayName</t>
   </si>
   <si>
-    <t>Observation.category:Gender.coding.userSelected</t>
+    <t>Observation.category:Gender_UMLS.coding.userSelected</t>
   </si>
   <si>
     <t>Observation.category.coding.userSelected</t>
@@ -892,7 +895,7 @@
     <t>CD.codingRationale</t>
   </si>
   <si>
-    <t>Observation.category:Gender.text</t>
+    <t>Observation.category:Gender_UMLS.text</t>
   </si>
   <si>
     <t>Observation.category.text</t>
@@ -917,6 +920,51 @@
   </si>
   <si>
     <t>./originalText[mediaType/code="text/plain"]/data</t>
+  </si>
+  <si>
+    <t>Observation.category:Gender_SNOMED</t>
+  </si>
+  <si>
+    <t>Gender_SNOMED</t>
+  </si>
+  <si>
+    <t>Observation.category:Gender_SNOMED.id</t>
+  </si>
+  <si>
+    <t>Observation.category:Gender_SNOMED.extension</t>
+  </si>
+  <si>
+    <t>Observation.category:Gender_SNOMED.coding</t>
+  </si>
+  <si>
+    <t>Observation.category:Gender_SNOMED.coding.id</t>
+  </si>
+  <si>
+    <t>Observation.category:Gender_SNOMED.coding.extension</t>
+  </si>
+  <si>
+    <t>Observation.category:Gender_SNOMED.coding.system</t>
+  </si>
+  <si>
+    <t>http://snomed.info/sct</t>
+  </si>
+  <si>
+    <t>Observation.category:Gender_SNOMED.coding.version</t>
+  </si>
+  <si>
+    <t>Observation.category:Gender_SNOMED.coding.code</t>
+  </si>
+  <si>
+    <t>263495000</t>
+  </si>
+  <si>
+    <t>Observation.category:Gender_SNOMED.coding.display</t>
+  </si>
+  <si>
+    <t>Observation.category:Gender_SNOMED.coding.userSelected</t>
+  </si>
+  <si>
+    <t>Observation.category:Gender_SNOMED.text</t>
   </si>
   <si>
     <t>Observation.code</t>
@@ -2011,7 +2059,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AP63"/>
+  <dimension ref="A1:AP75"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -2020,9 +2068,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="46.10546875" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="55.3984375" customWidth="true" bestFit="true"/>
     <col min="2" max="2" width="43.60546875" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="11.1328125" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="3" max="3" width="16.984375" customWidth="true" bestFit="true" hidden="true"/>
     <col min="4" max="4" width="38.81640625" customWidth="true" bestFit="true" hidden="true"/>
     <col min="5" max="5" width="5.90234375" customWidth="true" bestFit="true"/>
     <col min="6" max="6" width="4.69921875" customWidth="true" bestFit="true"/>
@@ -3768,7 +3816,7 @@
       </c>
       <c r="E15" s="2"/>
       <c r="F15" t="s" s="2">
-        <v>92</v>
+        <v>197</v>
       </c>
       <c r="G15" t="s" s="2">
         <v>81</v>
@@ -3783,19 +3831,19 @@
         <v>82</v>
       </c>
       <c r="K15" t="s" s="2">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="L15" t="s" s="2">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="M15" t="s" s="2">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="N15" t="s" s="2">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="O15" t="s" s="2">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="P15" t="s" s="2">
         <v>82</v>
@@ -3823,25 +3871,25 @@
         <v>119</v>
       </c>
       <c r="Y15" t="s" s="2">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="Z15" t="s" s="2">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="AA15" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AB15" t="s" s="2">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="AC15" t="s" s="2">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="AD15" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AE15" t="s" s="2">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="AF15" t="s" s="2">
         <v>196</v>
@@ -3865,13 +3913,13 @@
         <v>82</v>
       </c>
       <c r="AM15" t="s" s="2">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="AN15" t="s" s="2">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="AO15" t="s" s="2">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="AP15" t="s" s="2">
         <v>82</v>
@@ -3879,13 +3927,13 @@
     </row>
     <row r="16" hidden="true">
       <c r="A16" t="s" s="2">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="B16" t="s" s="2">
         <v>196</v>
       </c>
       <c r="C16" t="s" s="2">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="D16" t="s" s="2">
         <v>82</v>
@@ -3907,19 +3955,19 @@
         <v>82</v>
       </c>
       <c r="K16" t="s" s="2">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="L16" t="s" s="2">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="M16" t="s" s="2">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="N16" t="s" s="2">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="O16" t="s" s="2">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="P16" t="s" s="2">
         <v>82</v>
@@ -3947,10 +3995,10 @@
         <v>119</v>
       </c>
       <c r="Y16" t="s" s="2">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="Z16" t="s" s="2">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="AA16" t="s" s="2">
         <v>82</v>
@@ -3989,13 +4037,13 @@
         <v>82</v>
       </c>
       <c r="AM16" t="s" s="2">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="AN16" t="s" s="2">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="AO16" t="s" s="2">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="AP16" t="s" s="2">
         <v>82</v>
@@ -4003,10 +4051,10 @@
     </row>
     <row r="17" hidden="true">
       <c r="A17" t="s" s="2">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="B17" t="s" s="2">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="C17" s="2"/>
       <c r="D17" t="s" s="2">
@@ -4029,13 +4077,13 @@
         <v>82</v>
       </c>
       <c r="K17" t="s" s="2">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="L17" t="s" s="2">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="M17" t="s" s="2">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="N17" s="2"/>
       <c r="O17" s="2"/>
@@ -4086,7 +4134,7 @@
         <v>82</v>
       </c>
       <c r="AF17" t="s" s="2">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="AG17" t="s" s="2">
         <v>80</v>
@@ -4121,10 +4169,10 @@
     </row>
     <row r="18" hidden="true">
       <c r="A18" t="s" s="2">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="B18" t="s" s="2">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="C18" s="2"/>
       <c r="D18" t="s" s="2">
@@ -4153,7 +4201,7 @@
         <v>141</v>
       </c>
       <c r="M18" t="s" s="2">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="N18" t="s" s="2">
         <v>143</v>
@@ -4206,7 +4254,7 @@
         <v>146</v>
       </c>
       <c r="AF18" t="s" s="2">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="AG18" t="s" s="2">
         <v>80</v>
@@ -4241,10 +4289,10 @@
     </row>
     <row r="19" hidden="true">
       <c r="A19" t="s" s="2">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="B19" t="s" s="2">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="C19" s="2"/>
       <c r="D19" t="s" s="2">
@@ -4267,19 +4315,19 @@
         <v>93</v>
       </c>
       <c r="K19" t="s" s="2">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="L19" t="s" s="2">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="M19" t="s" s="2">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="N19" t="s" s="2">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="O19" t="s" s="2">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="P19" t="s" s="2">
         <v>82</v>
@@ -4328,7 +4376,7 @@
         <v>82</v>
       </c>
       <c r="AF19" t="s" s="2">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="AG19" t="s" s="2">
         <v>80</v>
@@ -4349,10 +4397,10 @@
         <v>82</v>
       </c>
       <c r="AM19" t="s" s="2">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="AN19" t="s" s="2">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="AO19" t="s" s="2">
         <v>82</v>
@@ -4363,10 +4411,10 @@
     </row>
     <row r="20" hidden="true">
       <c r="A20" t="s" s="2">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="B20" t="s" s="2">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="C20" s="2"/>
       <c r="D20" t="s" s="2">
@@ -4389,13 +4437,13 @@
         <v>82</v>
       </c>
       <c r="K20" t="s" s="2">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="L20" t="s" s="2">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="M20" t="s" s="2">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="N20" s="2"/>
       <c r="O20" s="2"/>
@@ -4446,7 +4494,7 @@
         <v>82</v>
       </c>
       <c r="AF20" t="s" s="2">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="AG20" t="s" s="2">
         <v>80</v>
@@ -4481,10 +4529,10 @@
     </row>
     <row r="21" hidden="true">
       <c r="A21" t="s" s="2">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="B21" t="s" s="2">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="C21" s="2"/>
       <c r="D21" t="s" s="2">
@@ -4513,7 +4561,7 @@
         <v>141</v>
       </c>
       <c r="M21" t="s" s="2">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="N21" t="s" s="2">
         <v>143</v>
@@ -4566,7 +4614,7 @@
         <v>146</v>
       </c>
       <c r="AF21" t="s" s="2">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="AG21" t="s" s="2">
         <v>80</v>
@@ -4601,10 +4649,10 @@
     </row>
     <row r="22" hidden="true">
       <c r="A22" t="s" s="2">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="B22" t="s" s="2">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="C22" s="2"/>
       <c r="D22" t="s" s="2">
@@ -4630,23 +4678,23 @@
         <v>108</v>
       </c>
       <c r="L22" t="s" s="2">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="M22" t="s" s="2">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="N22" t="s" s="2">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="O22" t="s" s="2">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="P22" t="s" s="2">
         <v>82</v>
       </c>
       <c r="Q22" s="2"/>
       <c r="R22" t="s" s="2">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="S22" t="s" s="2">
         <v>82</v>
@@ -4688,7 +4736,7 @@
         <v>82</v>
       </c>
       <c r="AF22" t="s" s="2">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="AG22" t="s" s="2">
         <v>80</v>
@@ -4709,10 +4757,10 @@
         <v>82</v>
       </c>
       <c r="AM22" t="s" s="2">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="AN22" t="s" s="2">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="AO22" t="s" s="2">
         <v>82</v>
@@ -4723,10 +4771,10 @@
     </row>
     <row r="23" hidden="true">
       <c r="A23" t="s" s="2">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="B23" t="s" s="2">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="C23" s="2"/>
       <c r="D23" t="s" s="2">
@@ -4749,16 +4797,16 @@
         <v>93</v>
       </c>
       <c r="K23" t="s" s="2">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="M23" t="s" s="2">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="N23" t="s" s="2">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="O23" s="2"/>
       <c r="P23" t="s" s="2">
@@ -4808,7 +4856,7 @@
         <v>82</v>
       </c>
       <c r="AF23" t="s" s="2">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="AG23" t="s" s="2">
         <v>80</v>
@@ -4829,10 +4877,10 @@
         <v>82</v>
       </c>
       <c r="AM23" t="s" s="2">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="AN23" t="s" s="2">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="AO23" t="s" s="2">
         <v>82</v>
@@ -4843,10 +4891,10 @@
     </row>
     <row r="24" hidden="true">
       <c r="A24" t="s" s="2">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="B24" t="s" s="2">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="C24" s="2"/>
       <c r="D24" t="s" s="2">
@@ -4872,23 +4920,23 @@
         <v>115</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="M24" t="s" s="2">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="N24" t="s" s="2">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="O24" t="s" s="2">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="P24" t="s" s="2">
         <v>82</v>
       </c>
       <c r="Q24" s="2"/>
       <c r="R24" t="s" s="2">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="S24" t="s" s="2">
         <v>82</v>
@@ -4930,7 +4978,7 @@
         <v>82</v>
       </c>
       <c r="AF24" t="s" s="2">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="AG24" t="s" s="2">
         <v>80</v>
@@ -4951,10 +4999,10 @@
         <v>82</v>
       </c>
       <c r="AM24" t="s" s="2">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="AN24" t="s" s="2">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="AO24" t="s" s="2">
         <v>82</v>
@@ -4965,10 +5013,10 @@
     </row>
     <row r="25" hidden="true">
       <c r="A25" t="s" s="2">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="B25" t="s" s="2">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="C25" s="2"/>
       <c r="D25" t="s" s="2">
@@ -4991,19 +5039,19 @@
         <v>93</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="M25" t="s" s="2">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="N25" t="s" s="2">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="O25" t="s" s="2">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="P25" t="s" s="2">
         <v>82</v>
@@ -5052,7 +5100,7 @@
         <v>82</v>
       </c>
       <c r="AF25" t="s" s="2">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="AG25" t="s" s="2">
         <v>80</v>
@@ -5073,10 +5121,10 @@
         <v>82</v>
       </c>
       <c r="AM25" t="s" s="2">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="AN25" t="s" s="2">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="AO25" t="s" s="2">
         <v>82</v>
@@ -5087,10 +5135,10 @@
     </row>
     <row r="26" hidden="true">
       <c r="A26" t="s" s="2">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="B26" t="s" s="2">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="C26" s="2"/>
       <c r="D26" t="s" s="2">
@@ -5113,19 +5161,19 @@
         <v>93</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="M26" t="s" s="2">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="N26" t="s" s="2">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="O26" t="s" s="2">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="P26" t="s" s="2">
         <v>82</v>
@@ -5174,7 +5222,7 @@
         <v>82</v>
       </c>
       <c r="AF26" t="s" s="2">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="AG26" t="s" s="2">
         <v>80</v>
@@ -5195,10 +5243,10 @@
         <v>82</v>
       </c>
       <c r="AM26" t="s" s="2">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="AN26" t="s" s="2">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="AO26" t="s" s="2">
         <v>82</v>
@@ -5209,10 +5257,10 @@
     </row>
     <row r="27" hidden="true">
       <c r="A27" t="s" s="2">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="B27" t="s" s="2">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="C27" s="2"/>
       <c r="D27" t="s" s="2">
@@ -5235,19 +5283,19 @@
         <v>93</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="M27" t="s" s="2">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="N27" t="s" s="2">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="O27" t="s" s="2">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="P27" t="s" s="2">
         <v>82</v>
@@ -5296,7 +5344,7 @@
         <v>82</v>
       </c>
       <c r="AF27" t="s" s="2">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="AG27" t="s" s="2">
         <v>80</v>
@@ -5317,10 +5365,10 @@
         <v>82</v>
       </c>
       <c r="AM27" t="s" s="2">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="AN27" t="s" s="2">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="AO27" t="s" s="2">
         <v>82</v>
@@ -5331,14 +5379,16 @@
     </row>
     <row r="28" hidden="true">
       <c r="A28" t="s" s="2">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="B28" t="s" s="2">
-        <v>291</v>
-      </c>
-      <c r="C28" s="2"/>
+        <v>196</v>
+      </c>
+      <c r="C28" t="s" s="2">
+        <v>293</v>
+      </c>
       <c r="D28" t="s" s="2">
-        <v>292</v>
+        <v>82</v>
       </c>
       <c r="E28" s="2"/>
       <c r="F28" t="s" s="2">
@@ -5348,28 +5398,28 @@
         <v>92</v>
       </c>
       <c r="H28" t="s" s="2">
-        <v>82</v>
+        <v>93</v>
       </c>
       <c r="I28" t="s" s="2">
         <v>82</v>
       </c>
       <c r="J28" t="s" s="2">
-        <v>93</v>
+        <v>82</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>293</v>
+        <v>199</v>
       </c>
       <c r="M28" t="s" s="2">
-        <v>294</v>
+        <v>200</v>
       </c>
       <c r="N28" t="s" s="2">
-        <v>295</v>
+        <v>201</v>
       </c>
       <c r="O28" t="s" s="2">
-        <v>296</v>
+        <v>202</v>
       </c>
       <c r="P28" t="s" s="2">
         <v>82</v>
@@ -5394,13 +5444,13 @@
         <v>82</v>
       </c>
       <c r="X28" t="s" s="2">
-        <v>297</v>
+        <v>119</v>
       </c>
       <c r="Y28" t="s" s="2">
-        <v>298</v>
+        <v>203</v>
       </c>
       <c r="Z28" t="s" s="2">
-        <v>299</v>
+        <v>204</v>
       </c>
       <c r="AA28" t="s" s="2">
         <v>82</v>
@@ -5418,13 +5468,13 @@
         <v>82</v>
       </c>
       <c r="AF28" t="s" s="2">
-        <v>291</v>
+        <v>196</v>
       </c>
       <c r="AG28" t="s" s="2">
-        <v>92</v>
+        <v>80</v>
       </c>
       <c r="AH28" t="s" s="2">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="AI28" t="s" s="2">
         <v>104</v>
@@ -5433,30 +5483,30 @@
         <v>105</v>
       </c>
       <c r="AK28" t="s" s="2">
-        <v>300</v>
+        <v>82</v>
       </c>
       <c r="AL28" t="s" s="2">
-        <v>301</v>
+        <v>82</v>
       </c>
       <c r="AM28" t="s" s="2">
-        <v>302</v>
+        <v>208</v>
       </c>
       <c r="AN28" t="s" s="2">
-        <v>303</v>
+        <v>209</v>
       </c>
       <c r="AO28" t="s" s="2">
-        <v>304</v>
+        <v>210</v>
       </c>
       <c r="AP28" t="s" s="2">
-        <v>305</v>
+        <v>82</v>
       </c>
     </row>
     <row r="29" hidden="true">
       <c r="A29" t="s" s="2">
-        <v>306</v>
+        <v>294</v>
       </c>
       <c r="B29" t="s" s="2">
-        <v>306</v>
+        <v>214</v>
       </c>
       <c r="C29" s="2"/>
       <c r="D29" t="s" s="2">
@@ -5476,23 +5526,19 @@
         <v>82</v>
       </c>
       <c r="J29" t="s" s="2">
-        <v>93</v>
+        <v>82</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>307</v>
+        <v>215</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>308</v>
+        <v>216</v>
       </c>
       <c r="M29" t="s" s="2">
-        <v>309</v>
-      </c>
-      <c r="N29" t="s" s="2">
-        <v>310</v>
-      </c>
-      <c r="O29" t="s" s="2">
-        <v>311</v>
-      </c>
+        <v>217</v>
+      </c>
+      <c r="N29" s="2"/>
+      <c r="O29" s="2"/>
       <c r="P29" t="s" s="2">
         <v>82</v>
       </c>
@@ -5540,7 +5586,7 @@
         <v>82</v>
       </c>
       <c r="AF29" t="s" s="2">
-        <v>306</v>
+        <v>218</v>
       </c>
       <c r="AG29" t="s" s="2">
         <v>80</v>
@@ -5549,25 +5595,25 @@
         <v>92</v>
       </c>
       <c r="AI29" t="s" s="2">
-        <v>104</v>
+        <v>82</v>
       </c>
       <c r="AJ29" t="s" s="2">
-        <v>170</v>
+        <v>82</v>
       </c>
       <c r="AK29" t="s" s="2">
-        <v>312</v>
+        <v>82</v>
       </c>
       <c r="AL29" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AM29" t="s" s="2">
-        <v>313</v>
+        <v>82</v>
       </c>
       <c r="AN29" t="s" s="2">
-        <v>314</v>
+        <v>113</v>
       </c>
       <c r="AO29" t="s" s="2">
-        <v>315</v>
+        <v>82</v>
       </c>
       <c r="AP29" t="s" s="2">
         <v>82</v>
@@ -5575,14 +5621,14 @@
     </row>
     <row r="30" hidden="true">
       <c r="A30" t="s" s="2">
-        <v>316</v>
+        <v>295</v>
       </c>
       <c r="B30" t="s" s="2">
-        <v>316</v>
+        <v>220</v>
       </c>
       <c r="C30" s="2"/>
       <c r="D30" t="s" s="2">
-        <v>82</v>
+        <v>139</v>
       </c>
       <c r="E30" s="2"/>
       <c r="F30" t="s" s="2">
@@ -5598,19 +5644,19 @@
         <v>82</v>
       </c>
       <c r="J30" t="s" s="2">
-        <v>93</v>
+        <v>82</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>317</v>
+        <v>140</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>318</v>
+        <v>141</v>
       </c>
       <c r="M30" t="s" s="2">
-        <v>319</v>
+        <v>221</v>
       </c>
       <c r="N30" t="s" s="2">
-        <v>320</v>
+        <v>143</v>
       </c>
       <c r="O30" s="2"/>
       <c r="P30" t="s" s="2">
@@ -5648,19 +5694,19 @@
         <v>82</v>
       </c>
       <c r="AB30" t="s" s="2">
-        <v>82</v>
+        <v>144</v>
       </c>
       <c r="AC30" t="s" s="2">
-        <v>82</v>
+        <v>145</v>
       </c>
       <c r="AD30" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AE30" t="s" s="2">
-        <v>82</v>
+        <v>146</v>
       </c>
       <c r="AF30" t="s" s="2">
-        <v>316</v>
+        <v>222</v>
       </c>
       <c r="AG30" t="s" s="2">
         <v>80</v>
@@ -5672,7 +5718,7 @@
         <v>104</v>
       </c>
       <c r="AJ30" t="s" s="2">
-        <v>170</v>
+        <v>148</v>
       </c>
       <c r="AK30" t="s" s="2">
         <v>82</v>
@@ -5681,13 +5727,13 @@
         <v>82</v>
       </c>
       <c r="AM30" t="s" s="2">
-        <v>302</v>
+        <v>82</v>
       </c>
       <c r="AN30" t="s" s="2">
-        <v>321</v>
+        <v>106</v>
       </c>
       <c r="AO30" t="s" s="2">
-        <v>315</v>
+        <v>82</v>
       </c>
       <c r="AP30" t="s" s="2">
         <v>82</v>
@@ -5695,21 +5741,21 @@
     </row>
     <row r="31" hidden="true">
       <c r="A31" t="s" s="2">
-        <v>322</v>
+        <v>296</v>
       </c>
       <c r="B31" t="s" s="2">
-        <v>322</v>
+        <v>224</v>
       </c>
       <c r="C31" s="2"/>
       <c r="D31" t="s" s="2">
-        <v>323</v>
+        <v>82</v>
       </c>
       <c r="E31" s="2"/>
       <c r="F31" t="s" s="2">
-        <v>80</v>
+        <v>92</v>
       </c>
       <c r="G31" t="s" s="2">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="H31" t="s" s="2">
         <v>82</v>
@@ -5721,19 +5767,19 @@
         <v>93</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>324</v>
+        <v>225</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>325</v>
+        <v>226</v>
       </c>
       <c r="M31" t="s" s="2">
-        <v>326</v>
+        <v>227</v>
       </c>
       <c r="N31" t="s" s="2">
-        <v>327</v>
+        <v>228</v>
       </c>
       <c r="O31" t="s" s="2">
-        <v>328</v>
+        <v>229</v>
       </c>
       <c r="P31" t="s" s="2">
         <v>82</v>
@@ -5782,34 +5828,34 @@
         <v>82</v>
       </c>
       <c r="AF31" t="s" s="2">
-        <v>322</v>
+        <v>230</v>
       </c>
       <c r="AG31" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH31" t="s" s="2">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="AI31" t="s" s="2">
         <v>104</v>
       </c>
       <c r="AJ31" t="s" s="2">
-        <v>170</v>
+        <v>105</v>
       </c>
       <c r="AK31" t="s" s="2">
-        <v>329</v>
+        <v>82</v>
       </c>
       <c r="AL31" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AM31" t="s" s="2">
-        <v>330</v>
+        <v>231</v>
       </c>
       <c r="AN31" t="s" s="2">
-        <v>331</v>
+        <v>232</v>
       </c>
       <c r="AO31" t="s" s="2">
-        <v>332</v>
+        <v>82</v>
       </c>
       <c r="AP31" t="s" s="2">
         <v>82</v>
@@ -5817,14 +5863,14 @@
     </row>
     <row r="32" hidden="true">
       <c r="A32" t="s" s="2">
-        <v>333</v>
+        <v>297</v>
       </c>
       <c r="B32" t="s" s="2">
-        <v>333</v>
+        <v>234</v>
       </c>
       <c r="C32" s="2"/>
       <c r="D32" t="s" s="2">
-        <v>334</v>
+        <v>82</v>
       </c>
       <c r="E32" s="2"/>
       <c r="F32" t="s" s="2">
@@ -5840,23 +5886,19 @@
         <v>82</v>
       </c>
       <c r="J32" t="s" s="2">
-        <v>93</v>
+        <v>82</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>335</v>
+        <v>215</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>336</v>
+        <v>216</v>
       </c>
       <c r="M32" t="s" s="2">
-        <v>337</v>
-      </c>
-      <c r="N32" t="s" s="2">
-        <v>338</v>
-      </c>
-      <c r="O32" t="s" s="2">
-        <v>339</v>
-      </c>
+        <v>217</v>
+      </c>
+      <c r="N32" s="2"/>
+      <c r="O32" s="2"/>
       <c r="P32" t="s" s="2">
         <v>82</v>
       </c>
@@ -5904,7 +5946,7 @@
         <v>82</v>
       </c>
       <c r="AF32" t="s" s="2">
-        <v>333</v>
+        <v>218</v>
       </c>
       <c r="AG32" t="s" s="2">
         <v>80</v>
@@ -5913,25 +5955,25 @@
         <v>92</v>
       </c>
       <c r="AI32" t="s" s="2">
-        <v>104</v>
+        <v>82</v>
       </c>
       <c r="AJ32" t="s" s="2">
-        <v>105</v>
+        <v>82</v>
       </c>
       <c r="AK32" t="s" s="2">
-        <v>340</v>
+        <v>82</v>
       </c>
       <c r="AL32" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AM32" t="s" s="2">
-        <v>341</v>
+        <v>82</v>
       </c>
       <c r="AN32" t="s" s="2">
-        <v>342</v>
+        <v>113</v>
       </c>
       <c r="AO32" t="s" s="2">
-        <v>343</v>
+        <v>82</v>
       </c>
       <c r="AP32" t="s" s="2">
         <v>82</v>
@@ -5939,21 +5981,21 @@
     </row>
     <row r="33" hidden="true">
       <c r="A33" t="s" s="2">
-        <v>344</v>
+        <v>298</v>
       </c>
       <c r="B33" t="s" s="2">
-        <v>344</v>
+        <v>236</v>
       </c>
       <c r="C33" s="2"/>
       <c r="D33" t="s" s="2">
-        <v>82</v>
+        <v>139</v>
       </c>
       <c r="E33" s="2"/>
       <c r="F33" t="s" s="2">
         <v>80</v>
       </c>
       <c r="G33" t="s" s="2">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="H33" t="s" s="2">
         <v>82</v>
@@ -5962,19 +6004,19 @@
         <v>82</v>
       </c>
       <c r="J33" t="s" s="2">
-        <v>93</v>
+        <v>82</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>345</v>
+        <v>140</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>346</v>
+        <v>141</v>
       </c>
       <c r="M33" t="s" s="2">
-        <v>347</v>
+        <v>221</v>
       </c>
       <c r="N33" t="s" s="2">
-        <v>348</v>
+        <v>143</v>
       </c>
       <c r="O33" s="2"/>
       <c r="P33" t="s" s="2">
@@ -6012,31 +6054,31 @@
         <v>82</v>
       </c>
       <c r="AB33" t="s" s="2">
-        <v>82</v>
+        <v>144</v>
       </c>
       <c r="AC33" t="s" s="2">
-        <v>82</v>
+        <v>145</v>
       </c>
       <c r="AD33" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AE33" t="s" s="2">
-        <v>82</v>
+        <v>146</v>
       </c>
       <c r="AF33" t="s" s="2">
-        <v>344</v>
+        <v>222</v>
       </c>
       <c r="AG33" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH33" t="s" s="2">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="AI33" t="s" s="2">
         <v>104</v>
       </c>
       <c r="AJ33" t="s" s="2">
-        <v>105</v>
+        <v>148</v>
       </c>
       <c r="AK33" t="s" s="2">
         <v>82</v>
@@ -6045,13 +6087,13 @@
         <v>82</v>
       </c>
       <c r="AM33" t="s" s="2">
-        <v>349</v>
+        <v>82</v>
       </c>
       <c r="AN33" t="s" s="2">
-        <v>350</v>
+        <v>106</v>
       </c>
       <c r="AO33" t="s" s="2">
-        <v>351</v>
+        <v>82</v>
       </c>
       <c r="AP33" t="s" s="2">
         <v>82</v>
@@ -6059,10 +6101,10 @@
     </row>
     <row r="34" hidden="true">
       <c r="A34" t="s" s="2">
-        <v>352</v>
+        <v>299</v>
       </c>
       <c r="B34" t="s" s="2">
-        <v>352</v>
+        <v>238</v>
       </c>
       <c r="C34" s="2"/>
       <c r="D34" t="s" s="2">
@@ -6070,10 +6112,10 @@
       </c>
       <c r="E34" s="2"/>
       <c r="F34" t="s" s="2">
-        <v>80</v>
+        <v>92</v>
       </c>
       <c r="G34" t="s" s="2">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="H34" t="s" s="2">
         <v>82</v>
@@ -6085,26 +6127,26 @@
         <v>93</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>353</v>
+        <v>108</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>354</v>
+        <v>239</v>
       </c>
       <c r="M34" t="s" s="2">
-        <v>355</v>
+        <v>240</v>
       </c>
       <c r="N34" t="s" s="2">
-        <v>168</v>
+        <v>241</v>
       </c>
       <c r="O34" t="s" s="2">
-        <v>356</v>
+        <v>242</v>
       </c>
       <c r="P34" t="s" s="2">
         <v>82</v>
       </c>
       <c r="Q34" s="2"/>
       <c r="R34" t="s" s="2">
-        <v>82</v>
+        <v>300</v>
       </c>
       <c r="S34" t="s" s="2">
         <v>82</v>
@@ -6146,34 +6188,34 @@
         <v>82</v>
       </c>
       <c r="AF34" t="s" s="2">
-        <v>352</v>
+        <v>244</v>
       </c>
       <c r="AG34" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH34" t="s" s="2">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="AI34" t="s" s="2">
         <v>104</v>
       </c>
       <c r="AJ34" t="s" s="2">
-        <v>170</v>
+        <v>105</v>
       </c>
       <c r="AK34" t="s" s="2">
-        <v>357</v>
+        <v>82</v>
       </c>
       <c r="AL34" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AM34" t="s" s="2">
-        <v>358</v>
+        <v>245</v>
       </c>
       <c r="AN34" t="s" s="2">
-        <v>359</v>
+        <v>246</v>
       </c>
       <c r="AO34" t="s" s="2">
-        <v>360</v>
+        <v>82</v>
       </c>
       <c r="AP34" t="s" s="2">
         <v>82</v>
@@ -6181,10 +6223,10 @@
     </row>
     <row r="35" hidden="true">
       <c r="A35" t="s" s="2">
-        <v>361</v>
+        <v>301</v>
       </c>
       <c r="B35" t="s" s="2">
-        <v>361</v>
+        <v>248</v>
       </c>
       <c r="C35" s="2"/>
       <c r="D35" t="s" s="2">
@@ -6207,20 +6249,18 @@
         <v>93</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>362</v>
+        <v>215</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>363</v>
+        <v>249</v>
       </c>
       <c r="M35" t="s" s="2">
-        <v>364</v>
+        <v>250</v>
       </c>
       <c r="N35" t="s" s="2">
-        <v>365</v>
-      </c>
-      <c r="O35" t="s" s="2">
-        <v>366</v>
-      </c>
+        <v>251</v>
+      </c>
+      <c r="O35" s="2"/>
       <c r="P35" t="s" s="2">
         <v>82</v>
       </c>
@@ -6268,7 +6308,7 @@
         <v>82</v>
       </c>
       <c r="AF35" t="s" s="2">
-        <v>361</v>
+        <v>252</v>
       </c>
       <c r="AG35" t="s" s="2">
         <v>80</v>
@@ -6277,7 +6317,7 @@
         <v>92</v>
       </c>
       <c r="AI35" t="s" s="2">
-        <v>367</v>
+        <v>104</v>
       </c>
       <c r="AJ35" t="s" s="2">
         <v>105</v>
@@ -6286,27 +6326,27 @@
         <v>82</v>
       </c>
       <c r="AL35" t="s" s="2">
-        <v>368</v>
+        <v>82</v>
       </c>
       <c r="AM35" t="s" s="2">
-        <v>369</v>
+        <v>253</v>
       </c>
       <c r="AN35" t="s" s="2">
-        <v>370</v>
+        <v>254</v>
       </c>
       <c r="AO35" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AP35" t="s" s="2">
-        <v>371</v>
+        <v>82</v>
       </c>
     </row>
     <row r="36" hidden="true">
       <c r="A36" t="s" s="2">
-        <v>372</v>
+        <v>302</v>
       </c>
       <c r="B36" t="s" s="2">
-        <v>372</v>
+        <v>256</v>
       </c>
       <c r="C36" s="2"/>
       <c r="D36" t="s" s="2">
@@ -6314,7 +6354,7 @@
       </c>
       <c r="E36" s="2"/>
       <c r="F36" t="s" s="2">
-        <v>80</v>
+        <v>92</v>
       </c>
       <c r="G36" t="s" s="2">
         <v>92</v>
@@ -6326,29 +6366,29 @@
         <v>82</v>
       </c>
       <c r="J36" t="s" s="2">
-        <v>82</v>
+        <v>93</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>197</v>
+        <v>115</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>373</v>
+        <v>257</v>
       </c>
       <c r="M36" t="s" s="2">
-        <v>374</v>
+        <v>258</v>
       </c>
       <c r="N36" t="s" s="2">
-        <v>375</v>
+        <v>259</v>
       </c>
       <c r="O36" t="s" s="2">
-        <v>376</v>
+        <v>260</v>
       </c>
       <c r="P36" t="s" s="2">
         <v>82</v>
       </c>
       <c r="Q36" s="2"/>
       <c r="R36" t="s" s="2">
-        <v>82</v>
+        <v>303</v>
       </c>
       <c r="S36" t="s" s="2">
         <v>82</v>
@@ -6366,13 +6406,13 @@
         <v>82</v>
       </c>
       <c r="X36" t="s" s="2">
-        <v>377</v>
+        <v>82</v>
       </c>
       <c r="Y36" t="s" s="2">
-        <v>378</v>
+        <v>82</v>
       </c>
       <c r="Z36" t="s" s="2">
-        <v>379</v>
+        <v>82</v>
       </c>
       <c r="AA36" t="s" s="2">
         <v>82</v>
@@ -6390,7 +6430,7 @@
         <v>82</v>
       </c>
       <c r="AF36" t="s" s="2">
-        <v>372</v>
+        <v>262</v>
       </c>
       <c r="AG36" t="s" s="2">
         <v>80</v>
@@ -6399,7 +6439,7 @@
         <v>92</v>
       </c>
       <c r="AI36" t="s" s="2">
-        <v>380</v>
+        <v>104</v>
       </c>
       <c r="AJ36" t="s" s="2">
         <v>105</v>
@@ -6411,10 +6451,10 @@
         <v>82</v>
       </c>
       <c r="AM36" t="s" s="2">
-        <v>106</v>
+        <v>263</v>
       </c>
       <c r="AN36" t="s" s="2">
-        <v>381</v>
+        <v>264</v>
       </c>
       <c r="AO36" t="s" s="2">
         <v>82</v>
@@ -6425,21 +6465,21 @@
     </row>
     <row r="37" hidden="true">
       <c r="A37" t="s" s="2">
-        <v>382</v>
+        <v>304</v>
       </c>
       <c r="B37" t="s" s="2">
-        <v>382</v>
+        <v>266</v>
       </c>
       <c r="C37" s="2"/>
       <c r="D37" t="s" s="2">
-        <v>383</v>
+        <v>82</v>
       </c>
       <c r="E37" s="2"/>
       <c r="F37" t="s" s="2">
         <v>80</v>
       </c>
       <c r="G37" t="s" s="2">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="H37" t="s" s="2">
         <v>82</v>
@@ -6448,22 +6488,22 @@
         <v>82</v>
       </c>
       <c r="J37" t="s" s="2">
-        <v>82</v>
+        <v>93</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>197</v>
+        <v>215</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>384</v>
+        <v>267</v>
       </c>
       <c r="M37" t="s" s="2">
-        <v>385</v>
+        <v>268</v>
       </c>
       <c r="N37" t="s" s="2">
-        <v>386</v>
+        <v>259</v>
       </c>
       <c r="O37" t="s" s="2">
-        <v>387</v>
+        <v>269</v>
       </c>
       <c r="P37" t="s" s="2">
         <v>82</v>
@@ -6488,13 +6528,13 @@
         <v>82</v>
       </c>
       <c r="X37" t="s" s="2">
-        <v>377</v>
+        <v>82</v>
       </c>
       <c r="Y37" t="s" s="2">
-        <v>388</v>
+        <v>82</v>
       </c>
       <c r="Z37" t="s" s="2">
-        <v>389</v>
+        <v>82</v>
       </c>
       <c r="AA37" t="s" s="2">
         <v>82</v>
@@ -6512,13 +6552,13 @@
         <v>82</v>
       </c>
       <c r="AF37" t="s" s="2">
-        <v>382</v>
+        <v>270</v>
       </c>
       <c r="AG37" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH37" t="s" s="2">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="AI37" t="s" s="2">
         <v>104</v>
@@ -6530,27 +6570,27 @@
         <v>82</v>
       </c>
       <c r="AL37" t="s" s="2">
-        <v>390</v>
+        <v>82</v>
       </c>
       <c r="AM37" t="s" s="2">
-        <v>391</v>
+        <v>271</v>
       </c>
       <c r="AN37" t="s" s="2">
-        <v>392</v>
+        <v>272</v>
       </c>
       <c r="AO37" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AP37" t="s" s="2">
-        <v>393</v>
+        <v>82</v>
       </c>
     </row>
     <row r="38" hidden="true">
       <c r="A38" t="s" s="2">
-        <v>394</v>
+        <v>305</v>
       </c>
       <c r="B38" t="s" s="2">
-        <v>394</v>
+        <v>274</v>
       </c>
       <c r="C38" s="2"/>
       <c r="D38" t="s" s="2">
@@ -6561,7 +6601,7 @@
         <v>80</v>
       </c>
       <c r="G38" t="s" s="2">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="H38" t="s" s="2">
         <v>82</v>
@@ -6570,22 +6610,22 @@
         <v>82</v>
       </c>
       <c r="J38" t="s" s="2">
-        <v>82</v>
+        <v>93</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>395</v>
+        <v>275</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>396</v>
+        <v>276</v>
       </c>
       <c r="M38" t="s" s="2">
-        <v>397</v>
+        <v>277</v>
       </c>
       <c r="N38" t="s" s="2">
-        <v>398</v>
+        <v>278</v>
       </c>
       <c r="O38" t="s" s="2">
-        <v>399</v>
+        <v>279</v>
       </c>
       <c r="P38" t="s" s="2">
         <v>82</v>
@@ -6634,13 +6674,13 @@
         <v>82</v>
       </c>
       <c r="AF38" t="s" s="2">
-        <v>394</v>
+        <v>280</v>
       </c>
       <c r="AG38" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH38" t="s" s="2">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="AI38" t="s" s="2">
         <v>104</v>
@@ -6655,10 +6695,10 @@
         <v>82</v>
       </c>
       <c r="AM38" t="s" s="2">
-        <v>400</v>
+        <v>281</v>
       </c>
       <c r="AN38" t="s" s="2">
-        <v>401</v>
+        <v>282</v>
       </c>
       <c r="AO38" t="s" s="2">
         <v>82</v>
@@ -6669,10 +6709,10 @@
     </row>
     <row r="39" hidden="true">
       <c r="A39" t="s" s="2">
-        <v>402</v>
+        <v>306</v>
       </c>
       <c r="B39" t="s" s="2">
-        <v>402</v>
+        <v>284</v>
       </c>
       <c r="C39" s="2"/>
       <c r="D39" t="s" s="2">
@@ -6692,21 +6732,23 @@
         <v>82</v>
       </c>
       <c r="J39" t="s" s="2">
-        <v>82</v>
+        <v>93</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>197</v>
+        <v>215</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>403</v>
+        <v>285</v>
       </c>
       <c r="M39" t="s" s="2">
-        <v>404</v>
+        <v>286</v>
       </c>
       <c r="N39" t="s" s="2">
-        <v>405</v>
-      </c>
-      <c r="O39" s="2"/>
+        <v>287</v>
+      </c>
+      <c r="O39" t="s" s="2">
+        <v>288</v>
+      </c>
       <c r="P39" t="s" s="2">
         <v>82</v>
       </c>
@@ -6730,13 +6772,13 @@
         <v>82</v>
       </c>
       <c r="X39" t="s" s="2">
-        <v>297</v>
+        <v>82</v>
       </c>
       <c r="Y39" t="s" s="2">
-        <v>406</v>
+        <v>82</v>
       </c>
       <c r="Z39" t="s" s="2">
-        <v>407</v>
+        <v>82</v>
       </c>
       <c r="AA39" t="s" s="2">
         <v>82</v>
@@ -6754,7 +6796,7 @@
         <v>82</v>
       </c>
       <c r="AF39" t="s" s="2">
-        <v>402</v>
+        <v>289</v>
       </c>
       <c r="AG39" t="s" s="2">
         <v>80</v>
@@ -6772,35 +6814,35 @@
         <v>82</v>
       </c>
       <c r="AL39" t="s" s="2">
-        <v>408</v>
+        <v>82</v>
       </c>
       <c r="AM39" t="s" s="2">
-        <v>409</v>
+        <v>290</v>
       </c>
       <c r="AN39" t="s" s="2">
-        <v>410</v>
+        <v>291</v>
       </c>
       <c r="AO39" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AP39" t="s" s="2">
-        <v>411</v>
+        <v>82</v>
       </c>
     </row>
     <row r="40" hidden="true">
       <c r="A40" t="s" s="2">
-        <v>412</v>
+        <v>307</v>
       </c>
       <c r="B40" t="s" s="2">
-        <v>412</v>
+        <v>307</v>
       </c>
       <c r="C40" s="2"/>
       <c r="D40" t="s" s="2">
-        <v>82</v>
+        <v>308</v>
       </c>
       <c r="E40" s="2"/>
       <c r="F40" t="s" s="2">
-        <v>80</v>
+        <v>92</v>
       </c>
       <c r="G40" t="s" s="2">
         <v>92</v>
@@ -6812,22 +6854,22 @@
         <v>82</v>
       </c>
       <c r="J40" t="s" s="2">
-        <v>82</v>
+        <v>93</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>413</v>
+        <v>309</v>
       </c>
       <c r="M40" t="s" s="2">
-        <v>414</v>
+        <v>310</v>
       </c>
       <c r="N40" t="s" s="2">
-        <v>415</v>
+        <v>311</v>
       </c>
       <c r="O40" t="s" s="2">
-        <v>416</v>
+        <v>312</v>
       </c>
       <c r="P40" t="s" s="2">
         <v>82</v>
@@ -6852,13 +6894,13 @@
         <v>82</v>
       </c>
       <c r="X40" t="s" s="2">
-        <v>297</v>
+        <v>313</v>
       </c>
       <c r="Y40" t="s" s="2">
-        <v>417</v>
+        <v>314</v>
       </c>
       <c r="Z40" t="s" s="2">
-        <v>418</v>
+        <v>315</v>
       </c>
       <c r="AA40" t="s" s="2">
         <v>82</v>
@@ -6876,10 +6918,10 @@
         <v>82</v>
       </c>
       <c r="AF40" t="s" s="2">
-        <v>412</v>
+        <v>307</v>
       </c>
       <c r="AG40" t="s" s="2">
-        <v>80</v>
+        <v>92</v>
       </c>
       <c r="AH40" t="s" s="2">
         <v>92</v>
@@ -6891,30 +6933,30 @@
         <v>105</v>
       </c>
       <c r="AK40" t="s" s="2">
-        <v>82</v>
+        <v>316</v>
       </c>
       <c r="AL40" t="s" s="2">
-        <v>82</v>
+        <v>317</v>
       </c>
       <c r="AM40" t="s" s="2">
-        <v>419</v>
+        <v>318</v>
       </c>
       <c r="AN40" t="s" s="2">
-        <v>420</v>
+        <v>319</v>
       </c>
       <c r="AO40" t="s" s="2">
-        <v>82</v>
+        <v>320</v>
       </c>
       <c r="AP40" t="s" s="2">
-        <v>82</v>
+        <v>321</v>
       </c>
     </row>
     <row r="41" hidden="true">
       <c r="A41" t="s" s="2">
-        <v>421</v>
+        <v>322</v>
       </c>
       <c r="B41" t="s" s="2">
-        <v>421</v>
+        <v>322</v>
       </c>
       <c r="C41" s="2"/>
       <c r="D41" t="s" s="2">
@@ -6934,21 +6976,23 @@
         <v>82</v>
       </c>
       <c r="J41" t="s" s="2">
-        <v>82</v>
+        <v>93</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>422</v>
+        <v>323</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>423</v>
+        <v>324</v>
       </c>
       <c r="M41" t="s" s="2">
-        <v>424</v>
+        <v>325</v>
       </c>
       <c r="N41" t="s" s="2">
-        <v>425</v>
-      </c>
-      <c r="O41" s="2"/>
+        <v>326</v>
+      </c>
+      <c r="O41" t="s" s="2">
+        <v>327</v>
+      </c>
       <c r="P41" t="s" s="2">
         <v>82</v>
       </c>
@@ -6996,7 +7040,7 @@
         <v>82</v>
       </c>
       <c r="AF41" t="s" s="2">
-        <v>421</v>
+        <v>322</v>
       </c>
       <c r="AG41" t="s" s="2">
         <v>80</v>
@@ -7011,30 +7055,30 @@
         <v>170</v>
       </c>
       <c r="AK41" t="s" s="2">
-        <v>82</v>
+        <v>328</v>
       </c>
       <c r="AL41" t="s" s="2">
-        <v>426</v>
+        <v>82</v>
       </c>
       <c r="AM41" t="s" s="2">
-        <v>427</v>
+        <v>329</v>
       </c>
       <c r="AN41" t="s" s="2">
-        <v>428</v>
+        <v>330</v>
       </c>
       <c r="AO41" t="s" s="2">
-        <v>82</v>
+        <v>331</v>
       </c>
       <c r="AP41" t="s" s="2">
-        <v>429</v>
+        <v>82</v>
       </c>
     </row>
     <row r="42" hidden="true">
       <c r="A42" t="s" s="2">
-        <v>430</v>
+        <v>332</v>
       </c>
       <c r="B42" t="s" s="2">
-        <v>430</v>
+        <v>332</v>
       </c>
       <c r="C42" s="2"/>
       <c r="D42" t="s" s="2">
@@ -7045,7 +7089,7 @@
         <v>80</v>
       </c>
       <c r="G42" t="s" s="2">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="H42" t="s" s="2">
         <v>82</v>
@@ -7054,19 +7098,19 @@
         <v>82</v>
       </c>
       <c r="J42" t="s" s="2">
-        <v>82</v>
+        <v>93</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>431</v>
+        <v>333</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>432</v>
+        <v>334</v>
       </c>
       <c r="M42" t="s" s="2">
-        <v>433</v>
+        <v>335</v>
       </c>
       <c r="N42" t="s" s="2">
-        <v>434</v>
+        <v>336</v>
       </c>
       <c r="O42" s="2"/>
       <c r="P42" t="s" s="2">
@@ -7116,13 +7160,13 @@
         <v>82</v>
       </c>
       <c r="AF42" t="s" s="2">
-        <v>430</v>
+        <v>332</v>
       </c>
       <c r="AG42" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH42" t="s" s="2">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="AI42" t="s" s="2">
         <v>104</v>
@@ -7134,38 +7178,38 @@
         <v>82</v>
       </c>
       <c r="AL42" t="s" s="2">
-        <v>435</v>
+        <v>82</v>
       </c>
       <c r="AM42" t="s" s="2">
-        <v>436</v>
+        <v>318</v>
       </c>
       <c r="AN42" t="s" s="2">
-        <v>437</v>
+        <v>337</v>
       </c>
       <c r="AO42" t="s" s="2">
-        <v>82</v>
+        <v>331</v>
       </c>
       <c r="AP42" t="s" s="2">
-        <v>438</v>
+        <v>82</v>
       </c>
     </row>
     <row r="43" hidden="true">
       <c r="A43" t="s" s="2">
-        <v>439</v>
+        <v>338</v>
       </c>
       <c r="B43" t="s" s="2">
-        <v>439</v>
+        <v>338</v>
       </c>
       <c r="C43" s="2"/>
       <c r="D43" t="s" s="2">
-        <v>82</v>
+        <v>339</v>
       </c>
       <c r="E43" s="2"/>
       <c r="F43" t="s" s="2">
         <v>80</v>
       </c>
       <c r="G43" t="s" s="2">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="H43" t="s" s="2">
         <v>82</v>
@@ -7174,22 +7218,22 @@
         <v>82</v>
       </c>
       <c r="J43" t="s" s="2">
-        <v>82</v>
+        <v>93</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>440</v>
+        <v>340</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>441</v>
+        <v>341</v>
       </c>
       <c r="M43" t="s" s="2">
-        <v>442</v>
+        <v>342</v>
       </c>
       <c r="N43" t="s" s="2">
-        <v>443</v>
+        <v>343</v>
       </c>
       <c r="O43" t="s" s="2">
-        <v>444</v>
+        <v>344</v>
       </c>
       <c r="P43" t="s" s="2">
         <v>82</v>
@@ -7238,34 +7282,34 @@
         <v>82</v>
       </c>
       <c r="AF43" t="s" s="2">
-        <v>439</v>
+        <v>338</v>
       </c>
       <c r="AG43" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH43" t="s" s="2">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="AI43" t="s" s="2">
         <v>104</v>
       </c>
       <c r="AJ43" t="s" s="2">
-        <v>445</v>
+        <v>170</v>
       </c>
       <c r="AK43" t="s" s="2">
-        <v>82</v>
+        <v>345</v>
       </c>
       <c r="AL43" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AM43" t="s" s="2">
-        <v>446</v>
+        <v>346</v>
       </c>
       <c r="AN43" t="s" s="2">
-        <v>447</v>
+        <v>347</v>
       </c>
       <c r="AO43" t="s" s="2">
-        <v>82</v>
+        <v>348</v>
       </c>
       <c r="AP43" t="s" s="2">
         <v>82</v>
@@ -7273,14 +7317,14 @@
     </row>
     <row r="44" hidden="true">
       <c r="A44" t="s" s="2">
-        <v>448</v>
+        <v>349</v>
       </c>
       <c r="B44" t="s" s="2">
-        <v>448</v>
+        <v>349</v>
       </c>
       <c r="C44" s="2"/>
       <c r="D44" t="s" s="2">
-        <v>82</v>
+        <v>350</v>
       </c>
       <c r="E44" s="2"/>
       <c r="F44" t="s" s="2">
@@ -7296,19 +7340,23 @@
         <v>82</v>
       </c>
       <c r="J44" t="s" s="2">
-        <v>82</v>
+        <v>93</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>214</v>
+        <v>351</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>215</v>
+        <v>352</v>
       </c>
       <c r="M44" t="s" s="2">
-        <v>216</v>
-      </c>
-      <c r="N44" s="2"/>
-      <c r="O44" s="2"/>
+        <v>353</v>
+      </c>
+      <c r="N44" t="s" s="2">
+        <v>354</v>
+      </c>
+      <c r="O44" t="s" s="2">
+        <v>355</v>
+      </c>
       <c r="P44" t="s" s="2">
         <v>82</v>
       </c>
@@ -7356,7 +7404,7 @@
         <v>82</v>
       </c>
       <c r="AF44" t="s" s="2">
-        <v>217</v>
+        <v>349</v>
       </c>
       <c r="AG44" t="s" s="2">
         <v>80</v>
@@ -7365,25 +7413,25 @@
         <v>92</v>
       </c>
       <c r="AI44" t="s" s="2">
-        <v>82</v>
+        <v>104</v>
       </c>
       <c r="AJ44" t="s" s="2">
-        <v>82</v>
+        <v>105</v>
       </c>
       <c r="AK44" t="s" s="2">
-        <v>82</v>
+        <v>356</v>
       </c>
       <c r="AL44" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AM44" t="s" s="2">
-        <v>82</v>
+        <v>357</v>
       </c>
       <c r="AN44" t="s" s="2">
-        <v>113</v>
+        <v>358</v>
       </c>
       <c r="AO44" t="s" s="2">
-        <v>82</v>
+        <v>359</v>
       </c>
       <c r="AP44" t="s" s="2">
         <v>82</v>
@@ -7391,21 +7439,21 @@
     </row>
     <row r="45" hidden="true">
       <c r="A45" t="s" s="2">
-        <v>449</v>
+        <v>360</v>
       </c>
       <c r="B45" t="s" s="2">
-        <v>449</v>
+        <v>360</v>
       </c>
       <c r="C45" s="2"/>
       <c r="D45" t="s" s="2">
-        <v>139</v>
+        <v>82</v>
       </c>
       <c r="E45" s="2"/>
       <c r="F45" t="s" s="2">
         <v>80</v>
       </c>
       <c r="G45" t="s" s="2">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="H45" t="s" s="2">
         <v>82</v>
@@ -7414,19 +7462,19 @@
         <v>82</v>
       </c>
       <c r="J45" t="s" s="2">
-        <v>82</v>
+        <v>93</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>140</v>
+        <v>361</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>141</v>
+        <v>362</v>
       </c>
       <c r="M45" t="s" s="2">
-        <v>220</v>
+        <v>363</v>
       </c>
       <c r="N45" t="s" s="2">
-        <v>143</v>
+        <v>364</v>
       </c>
       <c r="O45" s="2"/>
       <c r="P45" t="s" s="2">
@@ -7464,31 +7512,31 @@
         <v>82</v>
       </c>
       <c r="AB45" t="s" s="2">
-        <v>144</v>
+        <v>82</v>
       </c>
       <c r="AC45" t="s" s="2">
-        <v>145</v>
+        <v>82</v>
       </c>
       <c r="AD45" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AE45" t="s" s="2">
-        <v>146</v>
+        <v>82</v>
       </c>
       <c r="AF45" t="s" s="2">
-        <v>221</v>
+        <v>360</v>
       </c>
       <c r="AG45" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH45" t="s" s="2">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="AI45" t="s" s="2">
         <v>104</v>
       </c>
       <c r="AJ45" t="s" s="2">
-        <v>148</v>
+        <v>105</v>
       </c>
       <c r="AK45" t="s" s="2">
         <v>82</v>
@@ -7497,13 +7545,13 @@
         <v>82</v>
       </c>
       <c r="AM45" t="s" s="2">
-        <v>82</v>
+        <v>365</v>
       </c>
       <c r="AN45" t="s" s="2">
-        <v>106</v>
+        <v>366</v>
       </c>
       <c r="AO45" t="s" s="2">
-        <v>82</v>
+        <v>367</v>
       </c>
       <c r="AP45" t="s" s="2">
         <v>82</v>
@@ -7511,14 +7559,14 @@
     </row>
     <row r="46" hidden="true">
       <c r="A46" t="s" s="2">
-        <v>450</v>
+        <v>368</v>
       </c>
       <c r="B46" t="s" s="2">
-        <v>450</v>
+        <v>368</v>
       </c>
       <c r="C46" s="2"/>
       <c r="D46" t="s" s="2">
-        <v>451</v>
+        <v>82</v>
       </c>
       <c r="E46" s="2"/>
       <c r="F46" t="s" s="2">
@@ -7531,25 +7579,25 @@
         <v>82</v>
       </c>
       <c r="I46" t="s" s="2">
-        <v>93</v>
+        <v>82</v>
       </c>
       <c r="J46" t="s" s="2">
         <v>93</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>140</v>
+        <v>369</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>452</v>
+        <v>370</v>
       </c>
       <c r="M46" t="s" s="2">
-        <v>453</v>
+        <v>371</v>
       </c>
       <c r="N46" t="s" s="2">
-        <v>143</v>
+        <v>168</v>
       </c>
       <c r="O46" t="s" s="2">
-        <v>152</v>
+        <v>372</v>
       </c>
       <c r="P46" t="s" s="2">
         <v>82</v>
@@ -7598,7 +7646,7 @@
         <v>82</v>
       </c>
       <c r="AF46" t="s" s="2">
-        <v>454</v>
+        <v>368</v>
       </c>
       <c r="AG46" t="s" s="2">
         <v>80</v>
@@ -7610,22 +7658,22 @@
         <v>104</v>
       </c>
       <c r="AJ46" t="s" s="2">
-        <v>148</v>
+        <v>170</v>
       </c>
       <c r="AK46" t="s" s="2">
-        <v>82</v>
+        <v>373</v>
       </c>
       <c r="AL46" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AM46" t="s" s="2">
-        <v>82</v>
+        <v>374</v>
       </c>
       <c r="AN46" t="s" s="2">
-        <v>106</v>
+        <v>375</v>
       </c>
       <c r="AO46" t="s" s="2">
-        <v>82</v>
+        <v>376</v>
       </c>
       <c r="AP46" t="s" s="2">
         <v>82</v>
@@ -7633,10 +7681,10 @@
     </row>
     <row r="47" hidden="true">
       <c r="A47" t="s" s="2">
-        <v>455</v>
+        <v>377</v>
       </c>
       <c r="B47" t="s" s="2">
-        <v>455</v>
+        <v>377</v>
       </c>
       <c r="C47" s="2"/>
       <c r="D47" t="s" s="2">
@@ -7656,21 +7704,23 @@
         <v>82</v>
       </c>
       <c r="J47" t="s" s="2">
-        <v>82</v>
+        <v>93</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>456</v>
+        <v>378</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>457</v>
+        <v>379</v>
       </c>
       <c r="M47" t="s" s="2">
-        <v>458</v>
+        <v>380</v>
       </c>
       <c r="N47" t="s" s="2">
-        <v>459</v>
-      </c>
-      <c r="O47" s="2"/>
+        <v>381</v>
+      </c>
+      <c r="O47" t="s" s="2">
+        <v>382</v>
+      </c>
       <c r="P47" t="s" s="2">
         <v>82</v>
       </c>
@@ -7718,7 +7768,7 @@
         <v>82</v>
       </c>
       <c r="AF47" t="s" s="2">
-        <v>455</v>
+        <v>377</v>
       </c>
       <c r="AG47" t="s" s="2">
         <v>80</v>
@@ -7727,36 +7777,36 @@
         <v>92</v>
       </c>
       <c r="AI47" t="s" s="2">
-        <v>460</v>
+        <v>383</v>
       </c>
       <c r="AJ47" t="s" s="2">
-        <v>461</v>
+        <v>105</v>
       </c>
       <c r="AK47" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AL47" t="s" s="2">
-        <v>82</v>
+        <v>384</v>
       </c>
       <c r="AM47" t="s" s="2">
-        <v>462</v>
+        <v>385</v>
       </c>
       <c r="AN47" t="s" s="2">
-        <v>463</v>
+        <v>386</v>
       </c>
       <c r="AO47" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AP47" t="s" s="2">
-        <v>82</v>
+        <v>387</v>
       </c>
     </row>
     <row r="48" hidden="true">
       <c r="A48" t="s" s="2">
-        <v>464</v>
+        <v>388</v>
       </c>
       <c r="B48" t="s" s="2">
-        <v>464</v>
+        <v>388</v>
       </c>
       <c r="C48" s="2"/>
       <c r="D48" t="s" s="2">
@@ -7779,18 +7829,20 @@
         <v>82</v>
       </c>
       <c r="K48" t="s" s="2">
-        <v>456</v>
+        <v>198</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>465</v>
+        <v>389</v>
       </c>
       <c r="M48" t="s" s="2">
-        <v>466</v>
+        <v>390</v>
       </c>
       <c r="N48" t="s" s="2">
-        <v>459</v>
-      </c>
-      <c r="O48" s="2"/>
+        <v>391</v>
+      </c>
+      <c r="O48" t="s" s="2">
+        <v>392</v>
+      </c>
       <c r="P48" t="s" s="2">
         <v>82</v>
       </c>
@@ -7814,13 +7866,13 @@
         <v>82</v>
       </c>
       <c r="X48" t="s" s="2">
-        <v>82</v>
+        <v>393</v>
       </c>
       <c r="Y48" t="s" s="2">
-        <v>82</v>
+        <v>394</v>
       </c>
       <c r="Z48" t="s" s="2">
-        <v>82</v>
+        <v>395</v>
       </c>
       <c r="AA48" t="s" s="2">
         <v>82</v>
@@ -7838,7 +7890,7 @@
         <v>82</v>
       </c>
       <c r="AF48" t="s" s="2">
-        <v>464</v>
+        <v>388</v>
       </c>
       <c r="AG48" t="s" s="2">
         <v>80</v>
@@ -7847,10 +7899,10 @@
         <v>92</v>
       </c>
       <c r="AI48" t="s" s="2">
-        <v>460</v>
+        <v>396</v>
       </c>
       <c r="AJ48" t="s" s="2">
-        <v>461</v>
+        <v>105</v>
       </c>
       <c r="AK48" t="s" s="2">
         <v>82</v>
@@ -7859,10 +7911,10 @@
         <v>82</v>
       </c>
       <c r="AM48" t="s" s="2">
-        <v>462</v>
+        <v>106</v>
       </c>
       <c r="AN48" t="s" s="2">
-        <v>467</v>
+        <v>397</v>
       </c>
       <c r="AO48" t="s" s="2">
         <v>82</v>
@@ -7873,21 +7925,21 @@
     </row>
     <row r="49" hidden="true">
       <c r="A49" t="s" s="2">
-        <v>468</v>
+        <v>398</v>
       </c>
       <c r="B49" t="s" s="2">
-        <v>468</v>
+        <v>398</v>
       </c>
       <c r="C49" s="2"/>
       <c r="D49" t="s" s="2">
-        <v>82</v>
+        <v>399</v>
       </c>
       <c r="E49" s="2"/>
       <c r="F49" t="s" s="2">
         <v>80</v>
       </c>
       <c r="G49" t="s" s="2">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="H49" t="s" s="2">
         <v>82</v>
@@ -7899,19 +7951,19 @@
         <v>82</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>469</v>
+        <v>400</v>
       </c>
       <c r="M49" t="s" s="2">
-        <v>470</v>
+        <v>401</v>
       </c>
       <c r="N49" t="s" s="2">
-        <v>471</v>
+        <v>402</v>
       </c>
       <c r="O49" t="s" s="2">
-        <v>472</v>
+        <v>403</v>
       </c>
       <c r="P49" t="s" s="2">
         <v>82</v>
@@ -7936,13 +7988,13 @@
         <v>82</v>
       </c>
       <c r="X49" t="s" s="2">
-        <v>119</v>
+        <v>393</v>
       </c>
       <c r="Y49" t="s" s="2">
-        <v>473</v>
+        <v>404</v>
       </c>
       <c r="Z49" t="s" s="2">
-        <v>474</v>
+        <v>405</v>
       </c>
       <c r="AA49" t="s" s="2">
         <v>82</v>
@@ -7960,13 +8012,13 @@
         <v>82</v>
       </c>
       <c r="AF49" t="s" s="2">
-        <v>468</v>
+        <v>398</v>
       </c>
       <c r="AG49" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH49" t="s" s="2">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="AI49" t="s" s="2">
         <v>104</v>
@@ -7978,27 +8030,27 @@
         <v>82</v>
       </c>
       <c r="AL49" t="s" s="2">
-        <v>475</v>
+        <v>406</v>
       </c>
       <c r="AM49" t="s" s="2">
-        <v>476</v>
+        <v>407</v>
       </c>
       <c r="AN49" t="s" s="2">
-        <v>392</v>
+        <v>408</v>
       </c>
       <c r="AO49" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AP49" t="s" s="2">
-        <v>82</v>
+        <v>409</v>
       </c>
     </row>
     <row r="50" hidden="true">
       <c r="A50" t="s" s="2">
-        <v>477</v>
+        <v>410</v>
       </c>
       <c r="B50" t="s" s="2">
-        <v>477</v>
+        <v>410</v>
       </c>
       <c r="C50" s="2"/>
       <c r="D50" t="s" s="2">
@@ -8021,19 +8073,19 @@
         <v>82</v>
       </c>
       <c r="K50" t="s" s="2">
-        <v>197</v>
+        <v>411</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>478</v>
+        <v>412</v>
       </c>
       <c r="M50" t="s" s="2">
-        <v>479</v>
+        <v>413</v>
       </c>
       <c r="N50" t="s" s="2">
-        <v>480</v>
+        <v>414</v>
       </c>
       <c r="O50" t="s" s="2">
-        <v>481</v>
+        <v>415</v>
       </c>
       <c r="P50" t="s" s="2">
         <v>82</v>
@@ -8058,13 +8110,13 @@
         <v>82</v>
       </c>
       <c r="X50" t="s" s="2">
-        <v>297</v>
+        <v>82</v>
       </c>
       <c r="Y50" t="s" s="2">
-        <v>482</v>
+        <v>82</v>
       </c>
       <c r="Z50" t="s" s="2">
-        <v>483</v>
+        <v>82</v>
       </c>
       <c r="AA50" t="s" s="2">
         <v>82</v>
@@ -8082,7 +8134,7 @@
         <v>82</v>
       </c>
       <c r="AF50" t="s" s="2">
-        <v>477</v>
+        <v>410</v>
       </c>
       <c r="AG50" t="s" s="2">
         <v>80</v>
@@ -8100,13 +8152,13 @@
         <v>82</v>
       </c>
       <c r="AL50" t="s" s="2">
-        <v>475</v>
+        <v>82</v>
       </c>
       <c r="AM50" t="s" s="2">
-        <v>476</v>
+        <v>416</v>
       </c>
       <c r="AN50" t="s" s="2">
-        <v>392</v>
+        <v>417</v>
       </c>
       <c r="AO50" t="s" s="2">
         <v>82</v>
@@ -8117,10 +8169,10 @@
     </row>
     <row r="51" hidden="true">
       <c r="A51" t="s" s="2">
-        <v>484</v>
+        <v>418</v>
       </c>
       <c r="B51" t="s" s="2">
-        <v>484</v>
+        <v>418</v>
       </c>
       <c r="C51" s="2"/>
       <c r="D51" t="s" s="2">
@@ -8143,20 +8195,18 @@
         <v>82</v>
       </c>
       <c r="K51" t="s" s="2">
-        <v>485</v>
+        <v>198</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>486</v>
+        <v>419</v>
       </c>
       <c r="M51" t="s" s="2">
-        <v>487</v>
+        <v>420</v>
       </c>
       <c r="N51" t="s" s="2">
-        <v>488</v>
-      </c>
-      <c r="O51" t="s" s="2">
-        <v>489</v>
-      </c>
+        <v>421</v>
+      </c>
+      <c r="O51" s="2"/>
       <c r="P51" t="s" s="2">
         <v>82</v>
       </c>
@@ -8180,13 +8230,13 @@
         <v>82</v>
       </c>
       <c r="X51" t="s" s="2">
-        <v>82</v>
+        <v>313</v>
       </c>
       <c r="Y51" t="s" s="2">
-        <v>82</v>
+        <v>422</v>
       </c>
       <c r="Z51" t="s" s="2">
-        <v>82</v>
+        <v>423</v>
       </c>
       <c r="AA51" t="s" s="2">
         <v>82</v>
@@ -8204,7 +8254,7 @@
         <v>82</v>
       </c>
       <c r="AF51" t="s" s="2">
-        <v>484</v>
+        <v>418</v>
       </c>
       <c r="AG51" t="s" s="2">
         <v>80</v>
@@ -8216,33 +8266,33 @@
         <v>104</v>
       </c>
       <c r="AJ51" t="s" s="2">
-        <v>490</v>
+        <v>105</v>
       </c>
       <c r="AK51" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AL51" t="s" s="2">
-        <v>82</v>
+        <v>424</v>
       </c>
       <c r="AM51" t="s" s="2">
-        <v>491</v>
+        <v>425</v>
       </c>
       <c r="AN51" t="s" s="2">
-        <v>492</v>
+        <v>426</v>
       </c>
       <c r="AO51" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AP51" t="s" s="2">
-        <v>82</v>
+        <v>427</v>
       </c>
     </row>
     <row r="52" hidden="true">
       <c r="A52" t="s" s="2">
-        <v>493</v>
+        <v>428</v>
       </c>
       <c r="B52" t="s" s="2">
-        <v>493</v>
+        <v>428</v>
       </c>
       <c r="C52" s="2"/>
       <c r="D52" t="s" s="2">
@@ -8265,18 +8315,20 @@
         <v>82</v>
       </c>
       <c r="K52" t="s" s="2">
-        <v>214</v>
+        <v>198</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>494</v>
+        <v>429</v>
       </c>
       <c r="M52" t="s" s="2">
-        <v>495</v>
+        <v>430</v>
       </c>
       <c r="N52" t="s" s="2">
-        <v>258</v>
-      </c>
-      <c r="O52" s="2"/>
+        <v>431</v>
+      </c>
+      <c r="O52" t="s" s="2">
+        <v>432</v>
+      </c>
       <c r="P52" t="s" s="2">
         <v>82</v>
       </c>
@@ -8300,13 +8352,13 @@
         <v>82</v>
       </c>
       <c r="X52" t="s" s="2">
-        <v>82</v>
+        <v>313</v>
       </c>
       <c r="Y52" t="s" s="2">
-        <v>82</v>
+        <v>433</v>
       </c>
       <c r="Z52" t="s" s="2">
-        <v>82</v>
+        <v>434</v>
       </c>
       <c r="AA52" t="s" s="2">
         <v>82</v>
@@ -8324,7 +8376,7 @@
         <v>82</v>
       </c>
       <c r="AF52" t="s" s="2">
-        <v>493</v>
+        <v>428</v>
       </c>
       <c r="AG52" t="s" s="2">
         <v>80</v>
@@ -8345,10 +8397,10 @@
         <v>82</v>
       </c>
       <c r="AM52" t="s" s="2">
-        <v>462</v>
+        <v>435</v>
       </c>
       <c r="AN52" t="s" s="2">
-        <v>496</v>
+        <v>436</v>
       </c>
       <c r="AO52" t="s" s="2">
         <v>82</v>
@@ -8359,10 +8411,10 @@
     </row>
     <row r="53" hidden="true">
       <c r="A53" t="s" s="2">
-        <v>497</v>
+        <v>437</v>
       </c>
       <c r="B53" t="s" s="2">
-        <v>497</v>
+        <v>437</v>
       </c>
       <c r="C53" s="2"/>
       <c r="D53" t="s" s="2">
@@ -8373,7 +8425,7 @@
         <v>80</v>
       </c>
       <c r="G53" t="s" s="2">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="H53" t="s" s="2">
         <v>82</v>
@@ -8382,19 +8434,19 @@
         <v>82</v>
       </c>
       <c r="J53" t="s" s="2">
-        <v>93</v>
+        <v>82</v>
       </c>
       <c r="K53" t="s" s="2">
-        <v>498</v>
+        <v>438</v>
       </c>
       <c r="L53" t="s" s="2">
-        <v>499</v>
+        <v>439</v>
       </c>
       <c r="M53" t="s" s="2">
-        <v>500</v>
+        <v>440</v>
       </c>
       <c r="N53" t="s" s="2">
-        <v>501</v>
+        <v>441</v>
       </c>
       <c r="O53" s="2"/>
       <c r="P53" t="s" s="2">
@@ -8444,13 +8496,13 @@
         <v>82</v>
       </c>
       <c r="AF53" t="s" s="2">
-        <v>497</v>
+        <v>437</v>
       </c>
       <c r="AG53" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH53" t="s" s="2">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="AI53" t="s" s="2">
         <v>104</v>
@@ -8462,27 +8514,27 @@
         <v>82</v>
       </c>
       <c r="AL53" t="s" s="2">
-        <v>82</v>
+        <v>442</v>
       </c>
       <c r="AM53" t="s" s="2">
-        <v>502</v>
+        <v>443</v>
       </c>
       <c r="AN53" t="s" s="2">
-        <v>503</v>
+        <v>444</v>
       </c>
       <c r="AO53" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AP53" t="s" s="2">
-        <v>82</v>
+        <v>445</v>
       </c>
     </row>
     <row r="54" hidden="true">
       <c r="A54" t="s" s="2">
-        <v>504</v>
+        <v>446</v>
       </c>
       <c r="B54" t="s" s="2">
-        <v>504</v>
+        <v>446</v>
       </c>
       <c r="C54" s="2"/>
       <c r="D54" t="s" s="2">
@@ -8493,7 +8545,7 @@
         <v>80</v>
       </c>
       <c r="G54" t="s" s="2">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="H54" t="s" s="2">
         <v>82</v>
@@ -8502,19 +8554,19 @@
         <v>82</v>
       </c>
       <c r="J54" t="s" s="2">
-        <v>93</v>
+        <v>82</v>
       </c>
       <c r="K54" t="s" s="2">
-        <v>505</v>
+        <v>447</v>
       </c>
       <c r="L54" t="s" s="2">
-        <v>506</v>
+        <v>448</v>
       </c>
       <c r="M54" t="s" s="2">
-        <v>507</v>
+        <v>449</v>
       </c>
       <c r="N54" t="s" s="2">
-        <v>508</v>
+        <v>450</v>
       </c>
       <c r="O54" s="2"/>
       <c r="P54" t="s" s="2">
@@ -8564,13 +8616,13 @@
         <v>82</v>
       </c>
       <c r="AF54" t="s" s="2">
-        <v>504</v>
+        <v>446</v>
       </c>
       <c r="AG54" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH54" t="s" s="2">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="AI54" t="s" s="2">
         <v>104</v>
@@ -8582,27 +8634,27 @@
         <v>82</v>
       </c>
       <c r="AL54" t="s" s="2">
-        <v>82</v>
+        <v>451</v>
       </c>
       <c r="AM54" t="s" s="2">
-        <v>502</v>
+        <v>452</v>
       </c>
       <c r="AN54" t="s" s="2">
-        <v>509</v>
+        <v>453</v>
       </c>
       <c r="AO54" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AP54" t="s" s="2">
-        <v>82</v>
+        <v>454</v>
       </c>
     </row>
     <row r="55" hidden="true">
       <c r="A55" t="s" s="2">
-        <v>510</v>
+        <v>455</v>
       </c>
       <c r="B55" t="s" s="2">
-        <v>510</v>
+        <v>455</v>
       </c>
       <c r="C55" s="2"/>
       <c r="D55" t="s" s="2">
@@ -8622,22 +8674,22 @@
         <v>82</v>
       </c>
       <c r="J55" t="s" s="2">
-        <v>93</v>
+        <v>82</v>
       </c>
       <c r="K55" t="s" s="2">
-        <v>440</v>
+        <v>456</v>
       </c>
       <c r="L55" t="s" s="2">
-        <v>511</v>
+        <v>457</v>
       </c>
       <c r="M55" t="s" s="2">
-        <v>512</v>
+        <v>458</v>
       </c>
       <c r="N55" t="s" s="2">
-        <v>513</v>
+        <v>459</v>
       </c>
       <c r="O55" t="s" s="2">
-        <v>514</v>
+        <v>460</v>
       </c>
       <c r="P55" t="s" s="2">
         <v>82</v>
@@ -8686,7 +8738,7 @@
         <v>82</v>
       </c>
       <c r="AF55" t="s" s="2">
-        <v>510</v>
+        <v>455</v>
       </c>
       <c r="AG55" t="s" s="2">
         <v>80</v>
@@ -8698,7 +8750,7 @@
         <v>104</v>
       </c>
       <c r="AJ55" t="s" s="2">
-        <v>105</v>
+        <v>461</v>
       </c>
       <c r="AK55" t="s" s="2">
         <v>82</v>
@@ -8707,10 +8759,10 @@
         <v>82</v>
       </c>
       <c r="AM55" t="s" s="2">
-        <v>515</v>
+        <v>462</v>
       </c>
       <c r="AN55" t="s" s="2">
-        <v>516</v>
+        <v>463</v>
       </c>
       <c r="AO55" t="s" s="2">
         <v>82</v>
@@ -8721,10 +8773,10 @@
     </row>
     <row r="56" hidden="true">
       <c r="A56" t="s" s="2">
-        <v>517</v>
+        <v>464</v>
       </c>
       <c r="B56" t="s" s="2">
-        <v>517</v>
+        <v>464</v>
       </c>
       <c r="C56" s="2"/>
       <c r="D56" t="s" s="2">
@@ -8747,13 +8799,13 @@
         <v>82</v>
       </c>
       <c r="K56" t="s" s="2">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="L56" t="s" s="2">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="M56" t="s" s="2">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="N56" s="2"/>
       <c r="O56" s="2"/>
@@ -8804,7 +8856,7 @@
         <v>82</v>
       </c>
       <c r="AF56" t="s" s="2">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="AG56" t="s" s="2">
         <v>80</v>
@@ -8839,10 +8891,10 @@
     </row>
     <row r="57" hidden="true">
       <c r="A57" t="s" s="2">
-        <v>518</v>
+        <v>465</v>
       </c>
       <c r="B57" t="s" s="2">
-        <v>518</v>
+        <v>465</v>
       </c>
       <c r="C57" s="2"/>
       <c r="D57" t="s" s="2">
@@ -8871,7 +8923,7 @@
         <v>141</v>
       </c>
       <c r="M57" t="s" s="2">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="N57" t="s" s="2">
         <v>143</v>
@@ -8924,7 +8976,7 @@
         <v>146</v>
       </c>
       <c r="AF57" t="s" s="2">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="AG57" t="s" s="2">
         <v>80</v>
@@ -8959,14 +9011,14 @@
     </row>
     <row r="58" hidden="true">
       <c r="A58" t="s" s="2">
-        <v>519</v>
+        <v>466</v>
       </c>
       <c r="B58" t="s" s="2">
-        <v>519</v>
+        <v>466</v>
       </c>
       <c r="C58" s="2"/>
       <c r="D58" t="s" s="2">
-        <v>451</v>
+        <v>467</v>
       </c>
       <c r="E58" s="2"/>
       <c r="F58" t="s" s="2">
@@ -8988,10 +9040,10 @@
         <v>140</v>
       </c>
       <c r="L58" t="s" s="2">
-        <v>452</v>
+        <v>468</v>
       </c>
       <c r="M58" t="s" s="2">
-        <v>453</v>
+        <v>469</v>
       </c>
       <c r="N58" t="s" s="2">
         <v>143</v>
@@ -9046,7 +9098,7 @@
         <v>82</v>
       </c>
       <c r="AF58" t="s" s="2">
-        <v>454</v>
+        <v>470</v>
       </c>
       <c r="AG58" t="s" s="2">
         <v>80</v>
@@ -9081,10 +9133,10 @@
     </row>
     <row r="59" hidden="true">
       <c r="A59" t="s" s="2">
-        <v>520</v>
+        <v>471</v>
       </c>
       <c r="B59" t="s" s="2">
-        <v>520</v>
+        <v>471</v>
       </c>
       <c r="C59" s="2"/>
       <c r="D59" t="s" s="2">
@@ -9092,7 +9144,7 @@
       </c>
       <c r="E59" s="2"/>
       <c r="F59" t="s" s="2">
-        <v>92</v>
+        <v>80</v>
       </c>
       <c r="G59" t="s" s="2">
         <v>92</v>
@@ -9104,23 +9156,21 @@
         <v>82</v>
       </c>
       <c r="J59" t="s" s="2">
-        <v>93</v>
+        <v>82</v>
       </c>
       <c r="K59" t="s" s="2">
-        <v>197</v>
+        <v>472</v>
       </c>
       <c r="L59" t="s" s="2">
-        <v>521</v>
+        <v>473</v>
       </c>
       <c r="M59" t="s" s="2">
-        <v>522</v>
+        <v>474</v>
       </c>
       <c r="N59" t="s" s="2">
-        <v>523</v>
-      </c>
-      <c r="O59" t="s" s="2">
-        <v>296</v>
-      </c>
+        <v>475</v>
+      </c>
+      <c r="O59" s="2"/>
       <c r="P59" t="s" s="2">
         <v>82</v>
       </c>
@@ -9144,13 +9194,13 @@
         <v>82</v>
       </c>
       <c r="X59" t="s" s="2">
-        <v>297</v>
+        <v>82</v>
       </c>
       <c r="Y59" t="s" s="2">
-        <v>298</v>
+        <v>82</v>
       </c>
       <c r="Z59" t="s" s="2">
-        <v>299</v>
+        <v>82</v>
       </c>
       <c r="AA59" t="s" s="2">
         <v>82</v>
@@ -9168,34 +9218,34 @@
         <v>82</v>
       </c>
       <c r="AF59" t="s" s="2">
-        <v>520</v>
+        <v>471</v>
       </c>
       <c r="AG59" t="s" s="2">
-        <v>92</v>
+        <v>80</v>
       </c>
       <c r="AH59" t="s" s="2">
         <v>92</v>
       </c>
       <c r="AI59" t="s" s="2">
-        <v>104</v>
+        <v>476</v>
       </c>
       <c r="AJ59" t="s" s="2">
-        <v>105</v>
+        <v>477</v>
       </c>
       <c r="AK59" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AL59" t="s" s="2">
-        <v>524</v>
+        <v>82</v>
       </c>
       <c r="AM59" t="s" s="2">
-        <v>302</v>
+        <v>478</v>
       </c>
       <c r="AN59" t="s" s="2">
-        <v>303</v>
+        <v>479</v>
       </c>
       <c r="AO59" t="s" s="2">
-        <v>304</v>
+        <v>82</v>
       </c>
       <c r="AP59" t="s" s="2">
         <v>82</v>
@@ -9203,10 +9253,10 @@
     </row>
     <row r="60" hidden="true">
       <c r="A60" t="s" s="2">
-        <v>525</v>
+        <v>480</v>
       </c>
       <c r="B60" t="s" s="2">
-        <v>525</v>
+        <v>480</v>
       </c>
       <c r="C60" s="2"/>
       <c r="D60" t="s" s="2">
@@ -9226,23 +9276,21 @@
         <v>82</v>
       </c>
       <c r="J60" t="s" s="2">
-        <v>93</v>
+        <v>82</v>
       </c>
       <c r="K60" t="s" s="2">
-        <v>362</v>
+        <v>472</v>
       </c>
       <c r="L60" t="s" s="2">
-        <v>526</v>
+        <v>481</v>
       </c>
       <c r="M60" t="s" s="2">
-        <v>364</v>
+        <v>482</v>
       </c>
       <c r="N60" t="s" s="2">
-        <v>527</v>
-      </c>
-      <c r="O60" t="s" s="2">
-        <v>366</v>
-      </c>
+        <v>475</v>
+      </c>
+      <c r="O60" s="2"/>
       <c r="P60" t="s" s="2">
         <v>82</v>
       </c>
@@ -9290,7 +9338,7 @@
         <v>82</v>
       </c>
       <c r="AF60" t="s" s="2">
-        <v>525</v>
+        <v>480</v>
       </c>
       <c r="AG60" t="s" s="2">
         <v>80</v>
@@ -9299,36 +9347,36 @@
         <v>92</v>
       </c>
       <c r="AI60" t="s" s="2">
-        <v>104</v>
+        <v>476</v>
       </c>
       <c r="AJ60" t="s" s="2">
-        <v>105</v>
+        <v>477</v>
       </c>
       <c r="AK60" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AL60" t="s" s="2">
-        <v>528</v>
+        <v>82</v>
       </c>
       <c r="AM60" t="s" s="2">
-        <v>369</v>
+        <v>478</v>
       </c>
       <c r="AN60" t="s" s="2">
-        <v>370</v>
+        <v>483</v>
       </c>
       <c r="AO60" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AP60" t="s" s="2">
-        <v>371</v>
+        <v>82</v>
       </c>
     </row>
     <row r="61" hidden="true">
       <c r="A61" t="s" s="2">
-        <v>529</v>
+        <v>484</v>
       </c>
       <c r="B61" t="s" s="2">
-        <v>529</v>
+        <v>484</v>
       </c>
       <c r="C61" s="2"/>
       <c r="D61" t="s" s="2">
@@ -9351,19 +9399,19 @@
         <v>82</v>
       </c>
       <c r="K61" t="s" s="2">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="L61" t="s" s="2">
-        <v>530</v>
+        <v>485</v>
       </c>
       <c r="M61" t="s" s="2">
-        <v>531</v>
+        <v>486</v>
       </c>
       <c r="N61" t="s" s="2">
-        <v>532</v>
+        <v>487</v>
       </c>
       <c r="O61" t="s" s="2">
-        <v>376</v>
+        <v>488</v>
       </c>
       <c r="P61" t="s" s="2">
         <v>82</v>
@@ -9388,13 +9436,13 @@
         <v>82</v>
       </c>
       <c r="X61" t="s" s="2">
-        <v>377</v>
+        <v>119</v>
       </c>
       <c r="Y61" t="s" s="2">
-        <v>378</v>
+        <v>489</v>
       </c>
       <c r="Z61" t="s" s="2">
-        <v>379</v>
+        <v>490</v>
       </c>
       <c r="AA61" t="s" s="2">
         <v>82</v>
@@ -9412,7 +9460,7 @@
         <v>82</v>
       </c>
       <c r="AF61" t="s" s="2">
-        <v>529</v>
+        <v>484</v>
       </c>
       <c r="AG61" t="s" s="2">
         <v>80</v>
@@ -9421,7 +9469,7 @@
         <v>92</v>
       </c>
       <c r="AI61" t="s" s="2">
-        <v>380</v>
+        <v>104</v>
       </c>
       <c r="AJ61" t="s" s="2">
         <v>105</v>
@@ -9430,13 +9478,13 @@
         <v>82</v>
       </c>
       <c r="AL61" t="s" s="2">
-        <v>82</v>
+        <v>491</v>
       </c>
       <c r="AM61" t="s" s="2">
-        <v>106</v>
+        <v>492</v>
       </c>
       <c r="AN61" t="s" s="2">
-        <v>381</v>
+        <v>408</v>
       </c>
       <c r="AO61" t="s" s="2">
         <v>82</v>
@@ -9447,14 +9495,14 @@
     </row>
     <row r="62" hidden="true">
       <c r="A62" t="s" s="2">
-        <v>533</v>
+        <v>493</v>
       </c>
       <c r="B62" t="s" s="2">
-        <v>533</v>
+        <v>493</v>
       </c>
       <c r="C62" s="2"/>
       <c r="D62" t="s" s="2">
-        <v>383</v>
+        <v>82</v>
       </c>
       <c r="E62" s="2"/>
       <c r="F62" t="s" s="2">
@@ -9473,19 +9521,19 @@
         <v>82</v>
       </c>
       <c r="K62" t="s" s="2">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="L62" t="s" s="2">
-        <v>384</v>
+        <v>494</v>
       </c>
       <c r="M62" t="s" s="2">
-        <v>385</v>
+        <v>495</v>
       </c>
       <c r="N62" t="s" s="2">
-        <v>386</v>
+        <v>496</v>
       </c>
       <c r="O62" t="s" s="2">
-        <v>387</v>
+        <v>497</v>
       </c>
       <c r="P62" t="s" s="2">
         <v>82</v>
@@ -9510,13 +9558,13 @@
         <v>82</v>
       </c>
       <c r="X62" t="s" s="2">
-        <v>377</v>
+        <v>313</v>
       </c>
       <c r="Y62" t="s" s="2">
-        <v>388</v>
+        <v>498</v>
       </c>
       <c r="Z62" t="s" s="2">
-        <v>389</v>
+        <v>499</v>
       </c>
       <c r="AA62" t="s" s="2">
         <v>82</v>
@@ -9534,7 +9582,7 @@
         <v>82</v>
       </c>
       <c r="AF62" t="s" s="2">
-        <v>533</v>
+        <v>493</v>
       </c>
       <c r="AG62" t="s" s="2">
         <v>80</v>
@@ -9552,27 +9600,27 @@
         <v>82</v>
       </c>
       <c r="AL62" t="s" s="2">
-        <v>390</v>
+        <v>491</v>
       </c>
       <c r="AM62" t="s" s="2">
-        <v>391</v>
+        <v>492</v>
       </c>
       <c r="AN62" t="s" s="2">
-        <v>392</v>
+        <v>408</v>
       </c>
       <c r="AO62" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AP62" t="s" s="2">
-        <v>393</v>
+        <v>82</v>
       </c>
     </row>
     <row r="63" hidden="true">
       <c r="A63" t="s" s="2">
-        <v>534</v>
+        <v>500</v>
       </c>
       <c r="B63" t="s" s="2">
-        <v>534</v>
+        <v>500</v>
       </c>
       <c r="C63" s="2"/>
       <c r="D63" t="s" s="2">
@@ -9583,7 +9631,7 @@
         <v>80</v>
       </c>
       <c r="G63" t="s" s="2">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="H63" t="s" s="2">
         <v>82</v>
@@ -9595,19 +9643,19 @@
         <v>82</v>
       </c>
       <c r="K63" t="s" s="2">
-        <v>83</v>
+        <v>501</v>
       </c>
       <c r="L63" t="s" s="2">
-        <v>535</v>
+        <v>502</v>
       </c>
       <c r="M63" t="s" s="2">
-        <v>536</v>
+        <v>503</v>
       </c>
       <c r="N63" t="s" s="2">
-        <v>443</v>
+        <v>504</v>
       </c>
       <c r="O63" t="s" s="2">
-        <v>444</v>
+        <v>505</v>
       </c>
       <c r="P63" t="s" s="2">
         <v>82</v>
@@ -9656,41 +9704,1493 @@
         <v>82</v>
       </c>
       <c r="AF63" t="s" s="2">
+        <v>500</v>
+      </c>
+      <c r="AG63" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AH63" t="s" s="2">
+        <v>92</v>
+      </c>
+      <c r="AI63" t="s" s="2">
+        <v>104</v>
+      </c>
+      <c r="AJ63" t="s" s="2">
+        <v>506</v>
+      </c>
+      <c r="AK63" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AL63" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AM63" t="s" s="2">
+        <v>507</v>
+      </c>
+      <c r="AN63" t="s" s="2">
+        <v>508</v>
+      </c>
+      <c r="AO63" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AP63" t="s" s="2">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="64" hidden="true">
+      <c r="A64" t="s" s="2">
+        <v>509</v>
+      </c>
+      <c r="B64" t="s" s="2">
+        <v>509</v>
+      </c>
+      <c r="C64" s="2"/>
+      <c r="D64" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="E64" s="2"/>
+      <c r="F64" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="G64" t="s" s="2">
+        <v>92</v>
+      </c>
+      <c r="H64" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="I64" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="J64" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="K64" t="s" s="2">
+        <v>215</v>
+      </c>
+      <c r="L64" t="s" s="2">
+        <v>510</v>
+      </c>
+      <c r="M64" t="s" s="2">
+        <v>511</v>
+      </c>
+      <c r="N64" t="s" s="2">
+        <v>259</v>
+      </c>
+      <c r="O64" s="2"/>
+      <c r="P64" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="Q64" s="2"/>
+      <c r="R64" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="S64" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="T64" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="U64" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="V64" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="W64" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="X64" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="Y64" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="Z64" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AA64" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AB64" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AC64" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AD64" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AE64" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AF64" t="s" s="2">
+        <v>509</v>
+      </c>
+      <c r="AG64" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AH64" t="s" s="2">
+        <v>92</v>
+      </c>
+      <c r="AI64" t="s" s="2">
+        <v>104</v>
+      </c>
+      <c r="AJ64" t="s" s="2">
+        <v>105</v>
+      </c>
+      <c r="AK64" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AL64" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AM64" t="s" s="2">
+        <v>478</v>
+      </c>
+      <c r="AN64" t="s" s="2">
+        <v>512</v>
+      </c>
+      <c r="AO64" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AP64" t="s" s="2">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="65" hidden="true">
+      <c r="A65" t="s" s="2">
+        <v>513</v>
+      </c>
+      <c r="B65" t="s" s="2">
+        <v>513</v>
+      </c>
+      <c r="C65" s="2"/>
+      <c r="D65" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="E65" s="2"/>
+      <c r="F65" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="G65" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="H65" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="I65" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="J65" t="s" s="2">
+        <v>93</v>
+      </c>
+      <c r="K65" t="s" s="2">
+        <v>514</v>
+      </c>
+      <c r="L65" t="s" s="2">
+        <v>515</v>
+      </c>
+      <c r="M65" t="s" s="2">
+        <v>516</v>
+      </c>
+      <c r="N65" t="s" s="2">
+        <v>517</v>
+      </c>
+      <c r="O65" s="2"/>
+      <c r="P65" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="Q65" s="2"/>
+      <c r="R65" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="S65" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="T65" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="U65" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="V65" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="W65" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="X65" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="Y65" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="Z65" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AA65" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AB65" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AC65" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AD65" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AE65" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AF65" t="s" s="2">
+        <v>513</v>
+      </c>
+      <c r="AG65" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AH65" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AI65" t="s" s="2">
+        <v>104</v>
+      </c>
+      <c r="AJ65" t="s" s="2">
+        <v>170</v>
+      </c>
+      <c r="AK65" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AL65" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AM65" t="s" s="2">
+        <v>518</v>
+      </c>
+      <c r="AN65" t="s" s="2">
+        <v>519</v>
+      </c>
+      <c r="AO65" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AP65" t="s" s="2">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="66" hidden="true">
+      <c r="A66" t="s" s="2">
+        <v>520</v>
+      </c>
+      <c r="B66" t="s" s="2">
+        <v>520</v>
+      </c>
+      <c r="C66" s="2"/>
+      <c r="D66" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="E66" s="2"/>
+      <c r="F66" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="G66" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="H66" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="I66" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="J66" t="s" s="2">
+        <v>93</v>
+      </c>
+      <c r="K66" t="s" s="2">
+        <v>521</v>
+      </c>
+      <c r="L66" t="s" s="2">
+        <v>522</v>
+      </c>
+      <c r="M66" t="s" s="2">
+        <v>523</v>
+      </c>
+      <c r="N66" t="s" s="2">
+        <v>524</v>
+      </c>
+      <c r="O66" s="2"/>
+      <c r="P66" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="Q66" s="2"/>
+      <c r="R66" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="S66" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="T66" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="U66" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="V66" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="W66" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="X66" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="Y66" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="Z66" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AA66" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AB66" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AC66" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AD66" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AE66" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AF66" t="s" s="2">
+        <v>520</v>
+      </c>
+      <c r="AG66" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AH66" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AI66" t="s" s="2">
+        <v>104</v>
+      </c>
+      <c r="AJ66" t="s" s="2">
+        <v>170</v>
+      </c>
+      <c r="AK66" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AL66" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AM66" t="s" s="2">
+        <v>518</v>
+      </c>
+      <c r="AN66" t="s" s="2">
+        <v>525</v>
+      </c>
+      <c r="AO66" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AP66" t="s" s="2">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="67" hidden="true">
+      <c r="A67" t="s" s="2">
+        <v>526</v>
+      </c>
+      <c r="B67" t="s" s="2">
+        <v>526</v>
+      </c>
+      <c r="C67" s="2"/>
+      <c r="D67" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="E67" s="2"/>
+      <c r="F67" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="G67" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="H67" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="I67" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="J67" t="s" s="2">
+        <v>93</v>
+      </c>
+      <c r="K67" t="s" s="2">
+        <v>456</v>
+      </c>
+      <c r="L67" t="s" s="2">
+        <v>527</v>
+      </c>
+      <c r="M67" t="s" s="2">
+        <v>528</v>
+      </c>
+      <c r="N67" t="s" s="2">
+        <v>529</v>
+      </c>
+      <c r="O67" t="s" s="2">
+        <v>530</v>
+      </c>
+      <c r="P67" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="Q67" s="2"/>
+      <c r="R67" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="S67" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="T67" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="U67" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="V67" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="W67" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="X67" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="Y67" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="Z67" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AA67" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AB67" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AC67" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AD67" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AE67" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AF67" t="s" s="2">
+        <v>526</v>
+      </c>
+      <c r="AG67" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AH67" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AI67" t="s" s="2">
+        <v>104</v>
+      </c>
+      <c r="AJ67" t="s" s="2">
+        <v>105</v>
+      </c>
+      <c r="AK67" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AL67" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AM67" t="s" s="2">
+        <v>531</v>
+      </c>
+      <c r="AN67" t="s" s="2">
+        <v>532</v>
+      </c>
+      <c r="AO67" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AP67" t="s" s="2">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="68" hidden="true">
+      <c r="A68" t="s" s="2">
+        <v>533</v>
+      </c>
+      <c r="B68" t="s" s="2">
+        <v>533</v>
+      </c>
+      <c r="C68" s="2"/>
+      <c r="D68" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="E68" s="2"/>
+      <c r="F68" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="G68" t="s" s="2">
+        <v>92</v>
+      </c>
+      <c r="H68" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="I68" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="J68" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="K68" t="s" s="2">
+        <v>215</v>
+      </c>
+      <c r="L68" t="s" s="2">
+        <v>216</v>
+      </c>
+      <c r="M68" t="s" s="2">
+        <v>217</v>
+      </c>
+      <c r="N68" s="2"/>
+      <c r="O68" s="2"/>
+      <c r="P68" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="Q68" s="2"/>
+      <c r="R68" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="S68" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="T68" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="U68" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="V68" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="W68" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="X68" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="Y68" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="Z68" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AA68" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AB68" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AC68" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AD68" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AE68" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AF68" t="s" s="2">
+        <v>218</v>
+      </c>
+      <c r="AG68" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AH68" t="s" s="2">
+        <v>92</v>
+      </c>
+      <c r="AI68" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AJ68" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AK68" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AL68" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AM68" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AN68" t="s" s="2">
+        <v>113</v>
+      </c>
+      <c r="AO68" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AP68" t="s" s="2">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="69" hidden="true">
+      <c r="A69" t="s" s="2">
         <v>534</v>
       </c>
-      <c r="AG63" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AH63" t="s" s="2">
+      <c r="B69" t="s" s="2">
+        <v>534</v>
+      </c>
+      <c r="C69" s="2"/>
+      <c r="D69" t="s" s="2">
+        <v>139</v>
+      </c>
+      <c r="E69" s="2"/>
+      <c r="F69" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="G69" t="s" s="2">
         <v>81</v>
       </c>
-      <c r="AI63" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AJ63" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AK63" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AL63" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AM63" t="s" s="2">
-        <v>446</v>
-      </c>
-      <c r="AN63" t="s" s="2">
-        <v>447</v>
-      </c>
-      <c r="AO63" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AP63" t="s" s="2">
+      <c r="H69" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="I69" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="J69" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="K69" t="s" s="2">
+        <v>140</v>
+      </c>
+      <c r="L69" t="s" s="2">
+        <v>141</v>
+      </c>
+      <c r="M69" t="s" s="2">
+        <v>221</v>
+      </c>
+      <c r="N69" t="s" s="2">
+        <v>143</v>
+      </c>
+      <c r="O69" s="2"/>
+      <c r="P69" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="Q69" s="2"/>
+      <c r="R69" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="S69" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="T69" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="U69" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="V69" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="W69" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="X69" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="Y69" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="Z69" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AA69" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AB69" t="s" s="2">
+        <v>144</v>
+      </c>
+      <c r="AC69" t="s" s="2">
+        <v>145</v>
+      </c>
+      <c r="AD69" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AE69" t="s" s="2">
+        <v>146</v>
+      </c>
+      <c r="AF69" t="s" s="2">
+        <v>222</v>
+      </c>
+      <c r="AG69" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AH69" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AI69" t="s" s="2">
+        <v>104</v>
+      </c>
+      <c r="AJ69" t="s" s="2">
+        <v>148</v>
+      </c>
+      <c r="AK69" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AL69" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AM69" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AN69" t="s" s="2">
+        <v>106</v>
+      </c>
+      <c r="AO69" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AP69" t="s" s="2">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="70" hidden="true">
+      <c r="A70" t="s" s="2">
+        <v>535</v>
+      </c>
+      <c r="B70" t="s" s="2">
+        <v>535</v>
+      </c>
+      <c r="C70" s="2"/>
+      <c r="D70" t="s" s="2">
+        <v>467</v>
+      </c>
+      <c r="E70" s="2"/>
+      <c r="F70" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="G70" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="H70" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="I70" t="s" s="2">
+        <v>93</v>
+      </c>
+      <c r="J70" t="s" s="2">
+        <v>93</v>
+      </c>
+      <c r="K70" t="s" s="2">
+        <v>140</v>
+      </c>
+      <c r="L70" t="s" s="2">
+        <v>468</v>
+      </c>
+      <c r="M70" t="s" s="2">
+        <v>469</v>
+      </c>
+      <c r="N70" t="s" s="2">
+        <v>143</v>
+      </c>
+      <c r="O70" t="s" s="2">
+        <v>152</v>
+      </c>
+      <c r="P70" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="Q70" s="2"/>
+      <c r="R70" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="S70" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="T70" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="U70" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="V70" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="W70" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="X70" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="Y70" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="Z70" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AA70" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AB70" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AC70" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AD70" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AE70" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AF70" t="s" s="2">
+        <v>470</v>
+      </c>
+      <c r="AG70" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AH70" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AI70" t="s" s="2">
+        <v>104</v>
+      </c>
+      <c r="AJ70" t="s" s="2">
+        <v>148</v>
+      </c>
+      <c r="AK70" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AL70" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AM70" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AN70" t="s" s="2">
+        <v>106</v>
+      </c>
+      <c r="AO70" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AP70" t="s" s="2">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="71" hidden="true">
+      <c r="A71" t="s" s="2">
+        <v>536</v>
+      </c>
+      <c r="B71" t="s" s="2">
+        <v>536</v>
+      </c>
+      <c r="C71" s="2"/>
+      <c r="D71" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="E71" s="2"/>
+      <c r="F71" t="s" s="2">
+        <v>92</v>
+      </c>
+      <c r="G71" t="s" s="2">
+        <v>92</v>
+      </c>
+      <c r="H71" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="I71" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="J71" t="s" s="2">
+        <v>93</v>
+      </c>
+      <c r="K71" t="s" s="2">
+        <v>198</v>
+      </c>
+      <c r="L71" t="s" s="2">
+        <v>537</v>
+      </c>
+      <c r="M71" t="s" s="2">
+        <v>538</v>
+      </c>
+      <c r="N71" t="s" s="2">
+        <v>539</v>
+      </c>
+      <c r="O71" t="s" s="2">
+        <v>312</v>
+      </c>
+      <c r="P71" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="Q71" s="2"/>
+      <c r="R71" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="S71" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="T71" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="U71" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="V71" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="W71" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="X71" t="s" s="2">
+        <v>313</v>
+      </c>
+      <c r="Y71" t="s" s="2">
+        <v>314</v>
+      </c>
+      <c r="Z71" t="s" s="2">
+        <v>315</v>
+      </c>
+      <c r="AA71" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AB71" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AC71" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AD71" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AE71" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AF71" t="s" s="2">
+        <v>536</v>
+      </c>
+      <c r="AG71" t="s" s="2">
+        <v>92</v>
+      </c>
+      <c r="AH71" t="s" s="2">
+        <v>92</v>
+      </c>
+      <c r="AI71" t="s" s="2">
+        <v>104</v>
+      </c>
+      <c r="AJ71" t="s" s="2">
+        <v>105</v>
+      </c>
+      <c r="AK71" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AL71" t="s" s="2">
+        <v>540</v>
+      </c>
+      <c r="AM71" t="s" s="2">
+        <v>318</v>
+      </c>
+      <c r="AN71" t="s" s="2">
+        <v>319</v>
+      </c>
+      <c r="AO71" t="s" s="2">
+        <v>320</v>
+      </c>
+      <c r="AP71" t="s" s="2">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="72" hidden="true">
+      <c r="A72" t="s" s="2">
+        <v>541</v>
+      </c>
+      <c r="B72" t="s" s="2">
+        <v>541</v>
+      </c>
+      <c r="C72" s="2"/>
+      <c r="D72" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="E72" s="2"/>
+      <c r="F72" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="G72" t="s" s="2">
+        <v>92</v>
+      </c>
+      <c r="H72" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="I72" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="J72" t="s" s="2">
+        <v>93</v>
+      </c>
+      <c r="K72" t="s" s="2">
+        <v>378</v>
+      </c>
+      <c r="L72" t="s" s="2">
+        <v>542</v>
+      </c>
+      <c r="M72" t="s" s="2">
+        <v>380</v>
+      </c>
+      <c r="N72" t="s" s="2">
+        <v>543</v>
+      </c>
+      <c r="O72" t="s" s="2">
+        <v>382</v>
+      </c>
+      <c r="P72" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="Q72" s="2"/>
+      <c r="R72" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="S72" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="T72" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="U72" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="V72" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="W72" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="X72" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="Y72" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="Z72" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AA72" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AB72" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AC72" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AD72" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AE72" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AF72" t="s" s="2">
+        <v>541</v>
+      </c>
+      <c r="AG72" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AH72" t="s" s="2">
+        <v>92</v>
+      </c>
+      <c r="AI72" t="s" s="2">
+        <v>104</v>
+      </c>
+      <c r="AJ72" t="s" s="2">
+        <v>105</v>
+      </c>
+      <c r="AK72" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AL72" t="s" s="2">
+        <v>544</v>
+      </c>
+      <c r="AM72" t="s" s="2">
+        <v>385</v>
+      </c>
+      <c r="AN72" t="s" s="2">
+        <v>386</v>
+      </c>
+      <c r="AO72" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AP72" t="s" s="2">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="73" hidden="true">
+      <c r="A73" t="s" s="2">
+        <v>545</v>
+      </c>
+      <c r="B73" t="s" s="2">
+        <v>545</v>
+      </c>
+      <c r="C73" s="2"/>
+      <c r="D73" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="E73" s="2"/>
+      <c r="F73" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="G73" t="s" s="2">
+        <v>92</v>
+      </c>
+      <c r="H73" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="I73" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="J73" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="K73" t="s" s="2">
+        <v>198</v>
+      </c>
+      <c r="L73" t="s" s="2">
+        <v>546</v>
+      </c>
+      <c r="M73" t="s" s="2">
+        <v>547</v>
+      </c>
+      <c r="N73" t="s" s="2">
+        <v>548</v>
+      </c>
+      <c r="O73" t="s" s="2">
+        <v>392</v>
+      </c>
+      <c r="P73" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="Q73" s="2"/>
+      <c r="R73" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="S73" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="T73" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="U73" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="V73" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="W73" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="X73" t="s" s="2">
+        <v>393</v>
+      </c>
+      <c r="Y73" t="s" s="2">
+        <v>394</v>
+      </c>
+      <c r="Z73" t="s" s="2">
+        <v>395</v>
+      </c>
+      <c r="AA73" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AB73" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AC73" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AD73" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AE73" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AF73" t="s" s="2">
+        <v>545</v>
+      </c>
+      <c r="AG73" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AH73" t="s" s="2">
+        <v>92</v>
+      </c>
+      <c r="AI73" t="s" s="2">
+        <v>396</v>
+      </c>
+      <c r="AJ73" t="s" s="2">
+        <v>105</v>
+      </c>
+      <c r="AK73" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AL73" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AM73" t="s" s="2">
+        <v>106</v>
+      </c>
+      <c r="AN73" t="s" s="2">
+        <v>397</v>
+      </c>
+      <c r="AO73" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AP73" t="s" s="2">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="74" hidden="true">
+      <c r="A74" t="s" s="2">
+        <v>549</v>
+      </c>
+      <c r="B74" t="s" s="2">
+        <v>549</v>
+      </c>
+      <c r="C74" s="2"/>
+      <c r="D74" t="s" s="2">
+        <v>399</v>
+      </c>
+      <c r="E74" s="2"/>
+      <c r="F74" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="G74" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="H74" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="I74" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="J74" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="K74" t="s" s="2">
+        <v>198</v>
+      </c>
+      <c r="L74" t="s" s="2">
+        <v>400</v>
+      </c>
+      <c r="M74" t="s" s="2">
+        <v>401</v>
+      </c>
+      <c r="N74" t="s" s="2">
+        <v>402</v>
+      </c>
+      <c r="O74" t="s" s="2">
+        <v>403</v>
+      </c>
+      <c r="P74" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="Q74" s="2"/>
+      <c r="R74" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="S74" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="T74" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="U74" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="V74" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="W74" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="X74" t="s" s="2">
+        <v>393</v>
+      </c>
+      <c r="Y74" t="s" s="2">
+        <v>404</v>
+      </c>
+      <c r="Z74" t="s" s="2">
+        <v>405</v>
+      </c>
+      <c r="AA74" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AB74" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AC74" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AD74" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AE74" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AF74" t="s" s="2">
+        <v>549</v>
+      </c>
+      <c r="AG74" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AH74" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AI74" t="s" s="2">
+        <v>104</v>
+      </c>
+      <c r="AJ74" t="s" s="2">
+        <v>105</v>
+      </c>
+      <c r="AK74" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AL74" t="s" s="2">
+        <v>406</v>
+      </c>
+      <c r="AM74" t="s" s="2">
+        <v>407</v>
+      </c>
+      <c r="AN74" t="s" s="2">
+        <v>408</v>
+      </c>
+      <c r="AO74" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AP74" t="s" s="2">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="75" hidden="true">
+      <c r="A75" t="s" s="2">
+        <v>550</v>
+      </c>
+      <c r="B75" t="s" s="2">
+        <v>550</v>
+      </c>
+      <c r="C75" s="2"/>
+      <c r="D75" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="E75" s="2"/>
+      <c r="F75" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="G75" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="H75" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="I75" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="J75" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="K75" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="L75" t="s" s="2">
+        <v>551</v>
+      </c>
+      <c r="M75" t="s" s="2">
+        <v>552</v>
+      </c>
+      <c r="N75" t="s" s="2">
+        <v>459</v>
+      </c>
+      <c r="O75" t="s" s="2">
+        <v>460</v>
+      </c>
+      <c r="P75" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="Q75" s="2"/>
+      <c r="R75" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="S75" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="T75" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="U75" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="V75" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="W75" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="X75" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="Y75" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="Z75" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AA75" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AB75" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AC75" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AD75" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AE75" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AF75" t="s" s="2">
+        <v>550</v>
+      </c>
+      <c r="AG75" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AH75" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AI75" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AJ75" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AK75" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AL75" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AM75" t="s" s="2">
+        <v>462</v>
+      </c>
+      <c r="AN75" t="s" s="2">
+        <v>463</v>
+      </c>
+      <c r="AO75" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AP75" t="s" s="2">
         <v>82</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:AP63">
+  <autoFilter ref="A1:AP75">
     <filterColumn colId="6">
       <customFilters>
         <customFilter operator="notEqual" val=" "/>
@@ -9700,7 +11200,7 @@
       <filters blank="true"/>
     </filterColumn>
   </autoFilter>
-  <conditionalFormatting sqref="A2:AI62">
+  <conditionalFormatting sqref="A2:AI74">
     <cfRule type="expression" dxfId="0" priority="1">
       <formula>$G2&lt;&gt;"Y"</formula>
     </cfRule>

--- a/output/StructureDefinition-c-gender.xlsx
+++ b/output/StructureDefinition-c-gender.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-28T22:15:03+02:00</t>
+    <t>2023-03-28T23:17:42+02:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/StructureDefinition-c-gender.xlsx
+++ b/output/StructureDefinition-c-gender.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-28T23:17:42+02:00</t>
+    <t>2023-03-29T13:43:15+02:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/StructureDefinition-c-gender.xlsx
+++ b/output/StructureDefinition-c-gender.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-29T13:43:15+02:00</t>
+    <t>2023-03-30T02:04:17+02:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/StructureDefinition-c-gender.xlsx
+++ b/output/StructureDefinition-c-gender.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-30T02:04:17+02:00</t>
+    <t>2023-03-30T13:05:19+02:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/StructureDefinition-c-gender.xlsx
+++ b/output/StructureDefinition-c-gender.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-30T13:05:19+02:00</t>
+    <t>2023-03-30T15:07:01+02:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -774,7 +774,7 @@
     <t>Need to be unambiguous about the source of the definition of the symbol.</t>
   </si>
   <si>
-    <t>http://terminology.hl7.org/CodeSystem/umls</t>
+    <t>http://www.nlm.nih.gov/research/umls/</t>
   </si>
   <si>
     <t>Coding.system</t>

--- a/output/StructureDefinition-c-gender.xlsx
+++ b/output/StructureDefinition-c-gender.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-30T15:07:01+02:00</t>
+    <t>2023-03-30T17:28:47+02:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/StructureDefinition-c-gender.xlsx
+++ b/output/StructureDefinition-c-gender.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-30T17:28:47+02:00</t>
+    <t>2023-03-30T20:16:43+02:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -774,7 +774,7 @@
     <t>Need to be unambiguous about the source of the definition of the symbol.</t>
   </si>
   <si>
-    <t>http://www.nlm.nih.gov/research/umls/</t>
+    <t>http://www.nlm.nih.gov/research/umls</t>
   </si>
   <si>
     <t>Coding.system</t>

--- a/output/StructureDefinition-c-gender.xlsx
+++ b/output/StructureDefinition-c-gender.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-30T20:16:43+02:00</t>
+    <t>2023-03-31T11:28:30+02:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/StructureDefinition-c-gender.xlsx
+++ b/output/StructureDefinition-c-gender.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-31T11:28:30+02:00</t>
+    <t>2023-03-31T15:03:50+02:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/StructureDefinition-c-gender.xlsx
+++ b/output/StructureDefinition-c-gender.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-31T15:03:50+02:00</t>
+    <t>2023-04-02T11:40:39+02:00</t>
   </si>
   <si>
     <t>Publisher</t>
